--- a/112-1/PROGRAMMING APPLICATIONS FOR ENGINEERS/Final/fexam_grade_Purdue.xlsx
+++ b/112-1/PROGRAMMING APPLICATIONS FOR ENGINEERS/Final/fexam_grade_Purdue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\112-1\PROGRAMMING APPLICATIONS FOR ENGINEERS\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2339083D-7FB7-4CD9-B730-DDD6464086D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D189628F-795C-436A-AE8A-F6B75CD1D377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fexam" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="117">
   <si>
     <t>No</t>
   </si>
@@ -333,6 +333,83 @@
   </si>
   <si>
     <t>Starbucks</t>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assignment Mistakes</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>input hexadecimal</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>terminate condition</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>addition</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>overflow</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>print</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Without proper indents(-0)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Austin</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect variable types(-4)
+Terrible variable naming(-0)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Question 1: </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect input hexadecimal number</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect termination condition</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect addition by digit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect sum by digit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrong overflow detection</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect print format</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -436,7 +513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -502,12 +579,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -787,19 +919,19 @@
       <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.149999999999999"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.46484375" style="3" customWidth="1"/>
     <col min="2" max="2" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1328125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.88671875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="5.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.46484375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.86328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="5.86328125" style="5" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="15.6">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="15.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -822,7 +954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="31.2">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="15.75">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -841,7 +973,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="31.2">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="15.4">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -860,7 +992,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="31.2">
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="15.4">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -879,7 +1011,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="32.4">
+    <row r="5" spans="1:7" s="2" customFormat="1">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -898,7 +1030,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="32.4">
+    <row r="6" spans="1:7" s="2" customFormat="1">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -917,7 +1049,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="32.4">
+    <row r="7" spans="1:7" s="2" customFormat="1">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -936,7 +1068,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="32.4">
+    <row r="8" spans="1:7" s="2" customFormat="1">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -955,7 +1087,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="32.4">
+    <row r="9" spans="1:7" s="2" customFormat="1">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -974,7 +1106,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="32.4">
+    <row r="10" spans="1:7" s="2" customFormat="1">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -993,7 +1125,7 @@
       <c r="F10" s="12"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="32.4">
+    <row r="11" spans="1:7" s="2" customFormat="1">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1012,7 +1144,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" ht="32.4">
+    <row r="12" spans="1:7" s="2" customFormat="1">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -1031,7 +1163,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="32.4">
+    <row r="13" spans="1:7" s="2" customFormat="1">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -1050,7 +1182,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" ht="32.4">
+    <row r="14" spans="1:7" s="2" customFormat="1">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -1069,7 +1201,7 @@
       <c r="F14" s="12"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" ht="32.4">
+    <row r="15" spans="1:7" s="2" customFormat="1">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -1088,7 +1220,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" ht="32.4">
+    <row r="16" spans="1:7" s="2" customFormat="1">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -1107,7 +1239,7 @@
       <c r="F16" s="12"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" ht="32.4">
+    <row r="17" spans="1:7" s="2" customFormat="1">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -1126,7 +1258,7 @@
       <c r="F17" s="12"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" ht="32.4">
+    <row r="18" spans="1:7" s="2" customFormat="1">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -1145,7 +1277,7 @@
       <c r="F18" s="12"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" ht="32.4">
+    <row r="19" spans="1:7" s="2" customFormat="1">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -1164,7 +1296,7 @@
       <c r="F19" s="12"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" ht="32.4">
+    <row r="20" spans="1:7" s="2" customFormat="1">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -1183,7 +1315,7 @@
       <c r="F20" s="12"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" ht="32.4">
+    <row r="21" spans="1:7" s="2" customFormat="1">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -1202,7 +1334,7 @@
       <c r="F21" s="12"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="1:7" ht="32.4">
+    <row r="22" spans="1:7">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -1221,7 +1353,7 @@
       <c r="F22" s="22"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="1:7" ht="31.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -1240,7 +1372,7 @@
       <c r="F23" s="22"/>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" spans="1:7" ht="32.4">
+    <row r="24" spans="1:7">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -1278,26 +1410,2484 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E270BD7F-9147-4F13-A4BF-AC292858C9AC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="15.4"/>
+  <cols>
+    <col min="1" max="1" width="5.796875" style="26" customWidth="1"/>
+    <col min="2" max="4" width="10.53125" style="26" customWidth="1"/>
+    <col min="5" max="10" width="12.796875" style="26" customWidth="1"/>
+    <col min="11" max="11" width="40.796875" style="26" customWidth="1"/>
+    <col min="12" max="13" width="10.53125" style="26" customWidth="1"/>
+    <col min="14" max="14" width="35.796875" style="26" customWidth="1"/>
+    <col min="15" max="16384" width="8.86328125" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="8">
+        <v>5</v>
+      </c>
+      <c r="F1" s="8">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8">
+        <v>10</v>
+      </c>
+      <c r="H1" s="8">
+        <v>10</v>
+      </c>
+      <c r="I1" s="8">
+        <v>5</v>
+      </c>
+      <c r="J1" s="8">
+        <v>5</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="30.75">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="24"/>
+    </row>
+    <row r="3" spans="1:14" ht="30.75">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7">
+        <f>40-SUM(E3:J3,M3)</f>
+        <v>40</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="27"/>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <f t="shared" ref="M3:M25" si="0">IF(4*L3&lt;=20, 4*L3, 20)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="28" t="str">
+        <f>N$27&amp;IF(D3=40,"great",D3-40)&amp;CHAR(10)&amp;
+IF(E3=0,"",N$28&amp;"(-"&amp;E3&amp;")"&amp;CHAR(10))&amp;
+IF(F3=0,"",N$29&amp;"(-"&amp;F3&amp;")"&amp;CHAR(10))&amp;
+IF(G3=0,"",N$30&amp;"(-"&amp;G3&amp;")"&amp;CHAR(10))&amp;
+IF(H3=0,"",N$31&amp;"(-"&amp;H3&amp;")"&amp;CHAR(10))&amp;
+IF(I3=0,"",N$32&amp;"(-"&amp;I3&amp;")"&amp;CHAR(10))&amp;
+IF(J3=0,"",N$33&amp;"(-"&amp;J3&amp;")"&amp;CHAR(10))&amp;K3</f>
+        <v xml:space="preserve">Question 1: great
+</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="61.5">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" ref="D4:D25" si="1">40-SUM(E4:J4,M4)</f>
+        <v>20</v>
+      </c>
+      <c r="E4" s="34">
+        <v>0</v>
+      </c>
+      <c r="F4" s="34">
+        <v>0</v>
+      </c>
+      <c r="G4" s="34">
+        <v>10</v>
+      </c>
+      <c r="H4" s="34">
+        <v>10</v>
+      </c>
+      <c r="I4" s="34">
+        <v>0</v>
+      </c>
+      <c r="J4" s="34">
+        <v>0</v>
+      </c>
+      <c r="K4" s="27"/>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="28" t="str">
+        <f t="shared" ref="N4:N25" si="2">N$27&amp;IF(D4=40,"great",D4-40)&amp;CHAR(10)&amp;
+IF(E4=0,"",N$28&amp;"(-"&amp;E4&amp;")"&amp;CHAR(10))&amp;
+IF(F4=0,"",N$29&amp;"(-"&amp;F4&amp;")"&amp;CHAR(10))&amp;
+IF(G4=0,"",N$30&amp;"(-"&amp;G4&amp;")"&amp;CHAR(10))&amp;
+IF(H4=0,"",N$31&amp;"(-"&amp;H4&amp;")"&amp;CHAR(10))&amp;
+IF(I4=0,"",N$32&amp;"(-"&amp;I4&amp;")"&amp;CHAR(10))&amp;
+IF(J4=0,"",N$33&amp;"(-"&amp;J4&amp;")"&amp;CHAR(10))&amp;K4</f>
+        <v xml:space="preserve">Question 1: -20
+Incorrect addition by digit(-10)
+Incorrect sum by digit(-10)
+</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="76.900000000000006">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>10</v>
+      </c>
+      <c r="H5" s="8">
+        <v>10</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>5</v>
+      </c>
+      <c r="K5" s="27"/>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 1: -25
+Incorrect addition by digit(-10)
+Incorrect sum by digit(-10)
+Incorrect print format(-5)
+</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="30.75">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="27"/>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 1: great
+</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="30.75">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="27"/>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 1: great
+</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="30.75">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Question 1: great
+Without proper indents(-0)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="61.5">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>5</v>
+      </c>
+      <c r="J9" s="8">
+        <v>5</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 1: -10
+Wrong overflow detection(-5)
+Incorrect print format(-5)
+</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="30.75">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="27"/>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 1: great
+</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="46.15">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>5</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="27"/>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 1: -5
+Wrong overflow detection(-5)
+</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="30.75">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="27"/>
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 1: great
+</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="30.75">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="K13" s="27"/>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 1: great
+</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="30.75">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0</v>
+      </c>
+      <c r="K14" s="27"/>
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 1: great
+</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="30.75">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
+      <c r="K15" s="27"/>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 1: great
+</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="30.75">
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0</v>
+      </c>
+      <c r="K16" s="27"/>
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 1: great
+</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="46.15">
+      <c r="A17" s="9">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8">
+        <v>5</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0</v>
+      </c>
+      <c r="K17" s="27"/>
+      <c r="L17" s="7">
+        <v>0</v>
+      </c>
+      <c r="M17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 1: -5
+Wrong overflow detection(-5)
+</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="30.75">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0</v>
+      </c>
+      <c r="K18" s="27"/>
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 1: great
+</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="30.75">
+      <c r="A19" s="9">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0</v>
+      </c>
+      <c r="K19" s="27"/>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 1: great
+</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="30.75">
+      <c r="A20" s="9">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0</v>
+      </c>
+      <c r="K20" s="27"/>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 1: great
+</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="92.25">
+      <c r="A21" s="9">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <v>10</v>
+      </c>
+      <c r="H21" s="8">
+        <v>10</v>
+      </c>
+      <c r="I21" s="8">
+        <v>5</v>
+      </c>
+      <c r="J21" s="8">
+        <v>5</v>
+      </c>
+      <c r="K21" s="27"/>
+      <c r="L21" s="7">
+        <v>0</v>
+      </c>
+      <c r="M21" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 1: -30
+Incorrect addition by digit(-10)
+Incorrect sum by digit(-10)
+Wrong overflow detection(-5)
+Incorrect print format(-5)
+</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="30.75">
+      <c r="A22" s="9">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0</v>
+      </c>
+      <c r="K22" s="27"/>
+      <c r="L22" s="7">
+        <v>0</v>
+      </c>
+      <c r="M22" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="28" t="str">
+        <f>N$27&amp;IF(D22=40,"great",D22-40)&amp;CHAR(10)&amp;
+IF(E22=0,"",N$28&amp;"(-"&amp;E22&amp;")"&amp;CHAR(10))&amp;
+IF(F22=0,"",N$29&amp;"(-"&amp;F22&amp;")"&amp;CHAR(10))&amp;
+IF(G22=0,"",N$30&amp;"(-"&amp;G22&amp;")"&amp;CHAR(10))&amp;
+IF(H22=0,"",N$31&amp;"(-"&amp;H22&amp;")"&amp;CHAR(10))&amp;
+IF(I22=0,"",N$32&amp;"(-"&amp;I22&amp;")"&amp;CHAR(10))&amp;
+IF(J22=0,"",N$33&amp;"(-"&amp;J22&amp;")"&amp;CHAR(10))&amp;K22</f>
+        <v xml:space="preserve">Question 1: great
+</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="46.15">
+      <c r="A23" s="9">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="L23" s="7">
+        <v>1</v>
+      </c>
+      <c r="M23" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N23" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Question 1: -4
+Incorrect variable types(-4)
+Terrible variable naming(-0)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="61.5">
+      <c r="A24" s="9">
+        <v>22</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8">
+        <v>10</v>
+      </c>
+      <c r="H24" s="8">
+        <v>10</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0</v>
+      </c>
+      <c r="K24" s="27"/>
+      <c r="L24" s="7">
+        <v>0</v>
+      </c>
+      <c r="M24" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 1: -20
+Incorrect addition by digit(-10)
+Incorrect sum by digit(-10)
+</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="30.75">
+      <c r="A25" s="9">
+        <v>23</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8">
+        <v>0</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0</v>
+      </c>
+      <c r="K25" s="27"/>
+      <c r="L25" s="7">
+        <v>0</v>
+      </c>
+      <c r="M25" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 1: great
+</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="E27" s="31"/>
+      <c r="N27" s="32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="E28" s="31"/>
+      <c r="N28" s="33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="E29" s="31"/>
+      <c r="N29" s="33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="E30" s="31"/>
+      <c r="N30" s="33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="E31" s="31"/>
+      <c r="N31" s="33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="E32" s="31"/>
+      <c r="N32" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="14:14">
+      <c r="N33" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="K1:M2"/>
+    <mergeCell ref="N1:N2"/>
+  </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="E3:J25">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>E$1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6323B9B-4BCF-4CD4-945F-B74DDCC22885}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="16.149999999999999"/>
+  <cols>
+    <col min="1" max="1" width="5.796875" style="26" customWidth="1"/>
+    <col min="2" max="4" width="10.53125" style="26" customWidth="1"/>
+    <col min="5" max="10" width="12.796875" style="26" customWidth="1"/>
+    <col min="11" max="11" width="40.796875" style="26" customWidth="1"/>
+    <col min="12" max="13" width="10.53125" style="26" customWidth="1"/>
+    <col min="14" max="14" width="35.796875" style="26" customWidth="1"/>
+    <col min="15" max="16384" width="8.86328125" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.4">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="8">
+        <v>5</v>
+      </c>
+      <c r="F1" s="8">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8">
+        <v>10</v>
+      </c>
+      <c r="H1" s="8">
+        <v>10</v>
+      </c>
+      <c r="I1" s="8">
+        <v>5</v>
+      </c>
+      <c r="J1" s="8">
+        <v>5</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="30.75">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="24"/>
+    </row>
+    <row r="3" spans="1:14" ht="30.75">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7">
+        <f>40-SUM(E3:J3,M3)</f>
+        <v>40</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="27"/>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <f t="shared" ref="M3:M25" si="0">IF(4*L3&lt;=20, 4*L3, 20)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="28" t="str">
+        <f>N$27&amp;IF(D3=40,"great",D3-40)&amp;CHAR(10)&amp;
+IF(E3=0,"",N$28&amp;"(-"&amp;E3&amp;")"&amp;CHAR(10))&amp;
+IF(F3=0,"",N$29&amp;"(-"&amp;F3&amp;")"&amp;CHAR(10))&amp;
+IF(G3=0,"",N$30&amp;"(-"&amp;G3&amp;")"&amp;CHAR(10))&amp;
+IF(H3=0,"",N$31&amp;"(-"&amp;H3&amp;")"&amp;CHAR(10))&amp;
+IF(I3=0,"",N$32&amp;"(-"&amp;I3&amp;")"&amp;CHAR(10))&amp;
+IF(J3=0,"",N$33&amp;"(-"&amp;J3&amp;")"&amp;CHAR(10))&amp;K3</f>
+        <v xml:space="preserve">Question 1: great
+</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="61.5">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" ref="D4:D25" si="1">40-SUM(E4:J4,M4)</f>
+        <v>20</v>
+      </c>
+      <c r="E4" s="34">
+        <v>0</v>
+      </c>
+      <c r="F4" s="34">
+        <v>0</v>
+      </c>
+      <c r="G4" s="34">
+        <v>10</v>
+      </c>
+      <c r="H4" s="34">
+        <v>10</v>
+      </c>
+      <c r="I4" s="34">
+        <v>0</v>
+      </c>
+      <c r="J4" s="34">
+        <v>0</v>
+      </c>
+      <c r="K4" s="27"/>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="28" t="str">
+        <f t="shared" ref="N4:N25" si="2">N$27&amp;IF(D4=40,"great",D4-40)&amp;CHAR(10)&amp;
+IF(E4=0,"",N$28&amp;"(-"&amp;E4&amp;")"&amp;CHAR(10))&amp;
+IF(F4=0,"",N$29&amp;"(-"&amp;F4&amp;")"&amp;CHAR(10))&amp;
+IF(G4=0,"",N$30&amp;"(-"&amp;G4&amp;")"&amp;CHAR(10))&amp;
+IF(H4=0,"",N$31&amp;"(-"&amp;H4&amp;")"&amp;CHAR(10))&amp;
+IF(I4=0,"",N$32&amp;"(-"&amp;I4&amp;")"&amp;CHAR(10))&amp;
+IF(J4=0,"",N$33&amp;"(-"&amp;J4&amp;")"&amp;CHAR(10))&amp;K4</f>
+        <v xml:space="preserve">Question 1: -20
+Incorrect addition by digit(-10)
+Incorrect sum by digit(-10)
+</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="76.900000000000006">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>10</v>
+      </c>
+      <c r="H5" s="8">
+        <v>10</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>5</v>
+      </c>
+      <c r="K5" s="27"/>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 1: -25
+Incorrect addition by digit(-10)
+Incorrect sum by digit(-10)
+Incorrect print format(-5)
+</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="30.75">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="27"/>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 1: great
+</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="30.75">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="27"/>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 1: great
+</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="30.75">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Question 1: great
+Without proper indents(-0)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="61.5">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>5</v>
+      </c>
+      <c r="J9" s="8">
+        <v>5</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 1: -10
+Wrong overflow detection(-5)
+Incorrect print format(-5)
+</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="30.75">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="27"/>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 1: great
+</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="46.15">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>5</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="27"/>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 1: -5
+Wrong overflow detection(-5)
+</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="30.75">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="27"/>
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 1: great
+</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="30.75">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="K13" s="27"/>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 1: great
+</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="30.75">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0</v>
+      </c>
+      <c r="K14" s="27"/>
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 1: great
+</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="30.75">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
+      <c r="K15" s="27"/>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 1: great
+</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="30.75">
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0</v>
+      </c>
+      <c r="K16" s="27"/>
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 1: great
+</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="46.15">
+      <c r="A17" s="9">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8">
+        <v>5</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0</v>
+      </c>
+      <c r="K17" s="27"/>
+      <c r="L17" s="7">
+        <v>0</v>
+      </c>
+      <c r="M17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 1: -5
+Wrong overflow detection(-5)
+</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="30.75">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0</v>
+      </c>
+      <c r="K18" s="27"/>
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 1: great
+</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="30.75">
+      <c r="A19" s="9">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0</v>
+      </c>
+      <c r="K19" s="27"/>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 1: great
+</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="30.75">
+      <c r="A20" s="9">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0</v>
+      </c>
+      <c r="K20" s="27"/>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 1: great
+</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="92.25">
+      <c r="A21" s="9">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <v>10</v>
+      </c>
+      <c r="H21" s="8">
+        <v>10</v>
+      </c>
+      <c r="I21" s="8">
+        <v>5</v>
+      </c>
+      <c r="J21" s="8">
+        <v>5</v>
+      </c>
+      <c r="K21" s="27"/>
+      <c r="L21" s="7">
+        <v>0</v>
+      </c>
+      <c r="M21" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 1: -30
+Incorrect addition by digit(-10)
+Incorrect sum by digit(-10)
+Wrong overflow detection(-5)
+Incorrect print format(-5)
+</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="30.75">
+      <c r="A22" s="9">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0</v>
+      </c>
+      <c r="K22" s="27"/>
+      <c r="L22" s="7">
+        <v>0</v>
+      </c>
+      <c r="M22" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="28" t="str">
+        <f>N$27&amp;IF(D22=40,"great",D22-40)&amp;CHAR(10)&amp;
+IF(E22=0,"",N$28&amp;"(-"&amp;E22&amp;")"&amp;CHAR(10))&amp;
+IF(F22=0,"",N$29&amp;"(-"&amp;F22&amp;")"&amp;CHAR(10))&amp;
+IF(G22=0,"",N$30&amp;"(-"&amp;G22&amp;")"&amp;CHAR(10))&amp;
+IF(H22=0,"",N$31&amp;"(-"&amp;H22&amp;")"&amp;CHAR(10))&amp;
+IF(I22=0,"",N$32&amp;"(-"&amp;I22&amp;")"&amp;CHAR(10))&amp;
+IF(J22=0,"",N$33&amp;"(-"&amp;J22&amp;")"&amp;CHAR(10))&amp;K22</f>
+        <v xml:space="preserve">Question 1: great
+</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="46.15">
+      <c r="A23" s="9">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="L23" s="7">
+        <v>1</v>
+      </c>
+      <c r="M23" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N23" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Question 1: -4
+Incorrect variable types(-4)
+Terrible variable naming(-0)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="61.5">
+      <c r="A24" s="9">
+        <v>22</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8">
+        <v>10</v>
+      </c>
+      <c r="H24" s="8">
+        <v>10</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0</v>
+      </c>
+      <c r="K24" s="27"/>
+      <c r="L24" s="7">
+        <v>0</v>
+      </c>
+      <c r="M24" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 1: -20
+Incorrect addition by digit(-10)
+Incorrect sum by digit(-10)
+</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="30.75">
+      <c r="A25" s="9">
+        <v>23</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8">
+        <v>0</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0</v>
+      </c>
+      <c r="K25" s="27"/>
+      <c r="L25" s="7">
+        <v>0</v>
+      </c>
+      <c r="M25" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 1: great
+</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.4">
+      <c r="E27" s="31"/>
+      <c r="N27" s="32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15.4">
+      <c r="E28" s="31"/>
+      <c r="N28" s="33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15.4">
+      <c r="E29" s="31"/>
+      <c r="N29" s="33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15.4">
+      <c r="E30" s="31"/>
+      <c r="N30" s="33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15.4">
+      <c r="E31" s="31"/>
+      <c r="N31" s="33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.4">
+      <c r="E32" s="31"/>
+      <c r="N32" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="14:14" ht="15.4">
+      <c r="N33" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="K1:M2"/>
+    <mergeCell ref="N1:N2"/>
+  </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="E3:J25">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>E$1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1311,15 +3901,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文件" ma:contentTypeID="0x010100B542E048DCEC914CB381455F65170921" ma:contentTypeVersion="17" ma:contentTypeDescription="建立新的文件。" ma:contentTypeScope="" ma:versionID="a9fe78b0e763ba360e927b7ffbaa4d7a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3317c420-d316-4435-8241-33b98cfe393f" xmlns:ns4="63d3d360-74a6-4491-a2a1-d2af0de2cd9e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f4f3198fc71856a272a1be625b81b45a" ns3:_="" ns4:_="">
     <xsd:import namespace="3317c420-d316-4435-8241-33b98cfe393f"/>
@@ -1566,6 +4147,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E640310-4364-41D6-9671-4FC3C3618F46}">
   <ds:schemaRefs/>
@@ -1573,13 +4163,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84D1AD7C-47F2-4F28-91EE-0FBA88418B59}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8C229C7-8A04-4E15-A9F4-3B3F02F65EE4}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8C229C7-8A04-4E15-A9F4-3B3F02F65EE4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84D1AD7C-47F2-4F28-91EE-0FBA88418B59}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/112-1/PROGRAMMING APPLICATIONS FOR ENGINEERS/Final/fexam_grade_Purdue.xlsx
+++ b/112-1/PROGRAMMING APPLICATIONS FOR ENGINEERS/Final/fexam_grade_Purdue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\112-1\PROGRAMMING APPLICATIONS FOR ENGINEERS\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE99B79-8651-4FF8-AE28-A70B2539E8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE788FB-0B84-4E74-AB95-A3F2F2883047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fexam" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="141">
   <si>
     <t>No</t>
   </si>
@@ -347,38 +347,14 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>Incorrect input hexadecimal number</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>Incorrect termination condition</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>Incorrect addition by digit</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Incorrect sum by digit</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wrong overflow detection</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Incorrect print format</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>Mistakes</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>input string</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>smallest possible base</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -387,10 +363,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>non-alphanumerical error message</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>Binary</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -404,10 +376,6 @@
   </si>
   <si>
     <t xml:space="preserve">Question 2: </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>input real numbers</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -466,6 +434,78 @@
   <si>
     <t>Incorrect passing function(-4)
 Passing wrong variable(-4)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Using Left Riemann Sum(-0)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Using variables without declaration(-20)
+Using Left Riemann Sum(-0)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passing wrong variable(-4)</t>
+  </si>
+  <si>
+    <t>Multiple compile error(-8)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrong non-alphanumerical error message</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect finding smallest possible base</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect convert to decimal number</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrongly printing base and decimal</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrongly printing binary number</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrongly printing hexadecimal number</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect definition of linear equation</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect Right Riemann Sum</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrongly printing each interval</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrongly printing Left Triangle BCD</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrongly printing Right Triangle BAD</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrongly printing Total Area ABCD</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect result verification of area</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Using same loop value in nested loop(-4)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -576,7 +616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -612,9 +652,6 @@
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -626,23 +663,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -652,14 +678,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -667,41 +724,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -996,10 +1027,10 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F12" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
@@ -1027,17 +1058,17 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="15.6">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="187.2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1053,426 +1084,826 @@
       <c r="E2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="15.6">
+      <c r="F2" s="12" t="str">
+        <f>'Question 2'!O3&amp;'Question 3'!O3</f>
+        <v xml:space="preserve">Question 2: -11
+Wrong non-alphanumerical error message(-3)
+Incorrect finding smallest possible base(-5)
+Wrongly printing base and decimal(-3)
+Question 3: -32
+Incorrect definition of linear equation(-5)
+Incorrect Right Riemann Sum(-5)
+Wrongly printing each interval(-5)
+Wrongly printing Left Triangle BCD(-2)
+Wrongly printing Right Triangle BAD(-5)
+Wrongly printing Total Area ABCD(-5)
+</v>
+      </c>
+      <c r="G2" s="12">
+        <f>'Question 2'!D3+'Question 3'!D3</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="218.4">
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="27" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="15.6">
+      <c r="F3" s="12" t="str">
+        <f>'Question 2'!O4&amp;'Question 3'!O4</f>
+        <v xml:space="preserve">Question 2: -22
+Wrong non-alphanumerical error message(-3)
+Incorrect finding smallest possible base(-5)
+Incorrect convert to decimal number(-3)
+Wrongly printing base and decimal(-3)
+Using variables without initialize(-8)
+Question 3: -33
+Incorrect definition of linear equation(-5)
+Incorrect Right Riemann Sum(-5)
+Wrongly printing each interval(-5)
+Wrongly printing Left Triangle BCD(-3)
+Wrongly printing Right Triangle BAD(-5)
+Wrongly printing Total Area ABCD(-5)
+</v>
+      </c>
+      <c r="G3" s="12">
+        <f>'Question 2'!D4+'Question 3'!D4</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="46.8">
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1">
+      <c r="F4" s="12" t="str">
+        <f>'Question 2'!O5&amp;'Question 3'!O5</f>
+        <v xml:space="preserve">Question 2: great
+Question 3: great
+</v>
+      </c>
+      <c r="G4" s="12">
+        <f>'Question 2'!D5+'Question 3'!D5</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="171.6">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1">
+      <c r="F5" s="12" t="str">
+        <f>'Question 2'!O6&amp;'Question 3'!O6</f>
+        <v xml:space="preserve">Question 2: -12
+Wrong non-alphanumerical error message(-5)
+Incorrect convert to decimal number(-3)
+Improper variable initialize(-4)
+Question 3: -28
+Incorrect Right Riemann Sum(-5)
+Wrongly printing each interval(-5)
+Wrongly printing Left Triangle BCD(-3)
+Wrongly printing Right Triangle BAD(-5)
+Wrongly printing Total Area ABCD(-5)
+</v>
+      </c>
+      <c r="G5" s="12">
+        <f>'Question 2'!D6+'Question 3'!D6</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="234">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="33" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1">
+      <c r="F6" s="12" t="str">
+        <f>'Question 2'!O7&amp;'Question 3'!O7</f>
+        <v xml:space="preserve">Question 2: -35
+Wrong non-alphanumerical error message(-5)
+Incorrect termination condition(-5)
+Incorrect finding smallest possible base(-5)
+Incorrect convert to decimal number(-5)
+Wrongly printing base and decimal(-5)
+Wrongly printing binary number(-5)
+Question 3: -35
+Incorrect definition of linear equation(-5)
+Incorrect Right Riemann Sum(-5)
+Wrongly printing each interval(-5)
+Wrongly printing Left Triangle BCD(-5)
+Wrongly printing Right Triangle BAD(-5)
+Wrongly printing Total Area ABCD(-5)
+</v>
+      </c>
+      <c r="G6" s="12">
+        <f>'Question 2'!D7+'Question 3'!D7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="124.8">
       <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="33" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1">
+      <c r="F7" s="12" t="str">
+        <f>'Question 2'!O8&amp;'Question 3'!O8</f>
+        <v xml:space="preserve">Question 2: -13
+Wrong non-alphanumerical error message(-5)
+Incorrect finding smallest possible base(-5)
+Incorrect convert to decimal number(-3)
+Question 3: -6
+Incorrect Right Riemann Sum(-2)
+Improper variable initialize(-4)
+</v>
+      </c>
+      <c r="G7" s="12">
+        <f>'Question 2'!D8+'Question 3'!D8</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="218.4">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="33" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1">
+      <c r="F8" s="12" t="str">
+        <f>'Question 2'!O9&amp;'Question 3'!O9</f>
+        <v xml:space="preserve">Question 2: -30
+Wrong non-alphanumerical error message(-5)
+Incorrect termination condition(-5)
+Incorrect finding smallest possible base(-5)
+Incorrect convert to decimal number(-5)
+Wrongly printing binary number(-5)
+Question 3: -35
+Incorrect definition of linear equation(-5)
+Incorrect Right Riemann Sum(-5)
+Wrongly printing each interval(-5)
+Wrongly printing Left Triangle BCD(-5)
+Wrongly printing Right Triangle BAD(-5)
+Wrongly printing Total Area ABCD(-5)
+</v>
+      </c>
+      <c r="G8" s="12">
+        <f>'Question 2'!D9+'Question 3'!D9</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="234">
       <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="33" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1">
+      <c r="F9" s="12" t="str">
+        <f>'Question 2'!O10&amp;'Question 3'!O10</f>
+        <v xml:space="preserve">Question 2: -33
+Wrong non-alphanumerical error message(-5)
+Incorrect termination condition(-5)
+Incorrect finding smallest possible base(-5)
+Incorrect convert to decimal number(-5)
+Wrongly printing base and decimal(-3)
+Wrongly printing binary number(-5)
+Question 3: -35
+Incorrect definition of linear equation(-5)
+Incorrect Right Riemann Sum(-5)
+Wrongly printing each interval(-5)
+Wrongly printing Left Triangle BCD(-5)
+Wrongly printing Right Triangle BAD(-5)
+Wrongly printing Total Area ABCD(-5)
+</v>
+      </c>
+      <c r="G9" s="12">
+        <f>'Question 2'!D10+'Question 3'!D10</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="109.2">
       <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="33" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" s="2" customFormat="1">
+      <c r="F10" s="12" t="str">
+        <f>'Question 2'!O11&amp;'Question 3'!O11</f>
+        <v xml:space="preserve">Question 2: -16
+Wrong non-alphanumerical error message(-3)
+Incorrect termination condition(-5)
+Incorrect convert to decimal number(-5)
+Question 3: -5
+Incorrect Right Riemann Sum(-5)
+</v>
+      </c>
+      <c r="G10" s="12">
+        <f>'Question 2'!D11+'Question 3'!D11</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="187.2">
       <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="33" t="s">
         <v>45</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" s="2" customFormat="1">
+      <c r="F11" s="12" t="str">
+        <f>'Question 2'!O12&amp;'Question 3'!O12</f>
+        <v xml:space="preserve">Question 2: -28
+Wrong non-alphanumerical error message(-5)
+Wrongly printing base and decimal(-3)
+Using variables without initialize(-12)
+Incorrect type of variables(-8)
+Question 3: -28
+Incorrect Right Riemann Sum(-5)
+Wrongly printing each interval(-5)
+Wrongly printing Left Triangle BCD(-3)
+Wrongly printing Right Triangle BAD(-5)
+Wrongly printing Total Area ABCD(-5)
+</v>
+      </c>
+      <c r="G11" s="12">
+        <f>'Question 2'!D12+'Question 3'!D12</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="187.2">
       <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="33" t="s">
         <v>49</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:7" s="2" customFormat="1">
+      <c r="F12" s="12" t="str">
+        <f>'Question 2'!O13&amp;'Question 3'!O13</f>
+        <v xml:space="preserve">Question 2: -28
+Wrong non-alphanumerical error message(-5)
+Incorrect finding smallest possible base(-5)
+Incorrect convert to decimal number(-5)
+Wrongly printing base and decimal(-3)
+Wrongly printing binary number(-5)
+Question 3: -17
+Incorrect Right Riemann Sum(-2)
+Wrongly printing Left Triangle BCD(-2)
+Incorrect passing function(-4)
+Passing wrong variable(-4)
+</v>
+      </c>
+      <c r="G12" s="12">
+        <f>'Question 2'!D13+'Question 3'!D13</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="140.4">
       <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="33" t="s">
         <v>53</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" s="2" customFormat="1">
+      <c r="F13" s="12" t="str">
+        <f>'Question 2'!O14&amp;'Question 3'!O14</f>
+        <v xml:space="preserve">Question 2: -25
+Wrong non-alphanumerical error message(-5)
+Incorrect termination condition(-5)
+Incorrect finding smallest possible base(-5)
+Wrongly printing binary number(-5)
+Question 3: -2
+Incorrect Right Riemann Sum(-2)
+Using Left Riemann Sum(-0)
+</v>
+      </c>
+      <c r="G13" s="12">
+        <f>'Question 2'!D14+'Question 3'!D14</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="249.6">
       <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="33" t="s">
         <v>57</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" s="2" customFormat="1">
+      <c r="F14" s="12" t="str">
+        <f>'Question 2'!O15&amp;'Question 3'!O15</f>
+        <v xml:space="preserve">Question 2: -18
+Wrong non-alphanumerical error message(-5)
+Incorrect convert to decimal number(-3)
+Wrongly printing base and decimal(-3)
+Using same loop value in nested loop(-4)
+Question 3: -35
+Incorrect definition of linear equation(-2)
+Incorrect Right Riemann Sum(-5)
+Wrongly printing each interval(-5)
+Wrongly printing Left Triangle BCD(-2)
+Wrongly printing Right Triangle BAD(-5)
+Wrongly printing Total Area ABCD(-5)
+Using variables without declaration(-20)
+Using Left Riemann Sum(-0)
+</v>
+      </c>
+      <c r="G14" s="12">
+        <f>'Question 2'!D15+'Question 3'!D15</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="202.8">
       <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:7" s="2" customFormat="1">
+      <c r="F15" s="12" t="str">
+        <f>'Question 2'!O16&amp;'Question 3'!O16</f>
+        <v xml:space="preserve">Question 2: -23
+Wrong non-alphanumerical error message(-5)
+Incorrect termination condition(-5)
+Incorrect finding smallest possible base(-5)
+Incorrect convert to decimal number(-5)
+Question 3: -32
+Incorrect definition of linear equation(-5)
+Incorrect Right Riemann Sum(-5)
+Wrongly printing each interval(-5)
+Wrongly printing Left Triangle BCD(-2)
+Wrongly printing Right Triangle BAD(-5)
+Wrongly printing Total Area ABCD(-5)
+</v>
+      </c>
+      <c r="G15" s="12">
+        <f>'Question 2'!D16+'Question 3'!D16</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" ht="171.6">
       <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="33" t="s">
         <v>65</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7" s="2" customFormat="1">
+      <c r="F16" s="12" t="str">
+        <f>'Question 2'!O17&amp;'Question 3'!O17</f>
+        <v xml:space="preserve">Question 2: -35
+Wrong non-alphanumerical error message(-5)
+Incorrect termination condition(-5)
+Incorrect finding smallest possible base(-5)
+Incorrect convert to decimal number(-5)
+Wrongly printing base and decimal(-5)
+Wrongly printing binary number(-5)
+Question 3: -4
+Incorrect Right Riemann Sum(-2)
+Wrongly printing Left Triangle BCD(-2)
+</v>
+      </c>
+      <c r="G16" s="12">
+        <f>'Question 2'!D17+'Question 3'!D17</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" ht="234">
       <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="33" t="s">
         <v>69</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7" s="2" customFormat="1">
+      <c r="F17" s="12" t="str">
+        <f>'Question 2'!O18&amp;'Question 3'!O18</f>
+        <v xml:space="preserve">Question 2: -35
+Wrong non-alphanumerical error message(-5)
+Incorrect termination condition(-5)
+Incorrect finding smallest possible base(-5)
+Incorrect convert to decimal number(-5)
+Wrongly printing base and decimal(-5)
+Wrongly printing binary number(-5)
+Question 3: -32
+Incorrect definition of linear equation(-5)
+Incorrect Right Riemann Sum(-5)
+Wrongly printing each interval(-5)
+Wrongly printing Left Triangle BCD(-2)
+Wrongly printing Right Triangle BAD(-5)
+Wrongly printing Total Area ABCD(-5)
+</v>
+      </c>
+      <c r="G17" s="12">
+        <f>'Question 2'!D18+'Question 3'!D18</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="249.6">
       <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="33" t="s">
         <v>73</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:7" s="2" customFormat="1">
+      <c r="F18" s="12" t="str">
+        <f>'Question 2'!O19&amp;'Question 3'!O19</f>
+        <v xml:space="preserve">Question 2: -35
+Wrong non-alphanumerical error message(-5)
+Incorrect termination condition(-5)
+Incorrect finding smallest possible base(-5)
+Incorrect convert to decimal number(-5)
+Wrongly printing base and decimal(-5)
+Wrongly printing binary number(-5)
+Question 3: -25
+Incorrect definition of linear equation(-5)
+Incorrect Right Riemann Sum(-2)
+Wrongly printing each interval(-3)
+Wrongly printing Left Triangle BCD(-2)
+Wrongly printing Right Triangle BAD(-3)
+Wrongly printing Total Area ABCD(-3)
+Passing wrong variable(-4)
+</v>
+      </c>
+      <c r="G18" s="12">
+        <f>'Question 2'!D19+'Question 3'!D19</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="234">
       <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="33" t="s">
         <v>77</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" s="2" customFormat="1">
+      <c r="F19" s="12" t="str">
+        <f>'Question 2'!O20&amp;'Question 3'!O20</f>
+        <v xml:space="preserve">Question 2: -35
+Wrong non-alphanumerical error message(-5)
+Incorrect termination condition(-5)
+Incorrect finding smallest possible base(-5)
+Incorrect convert to decimal number(-5)
+Wrongly printing base and decimal(-5)
+Wrongly printing binary number(-5)
+Question 3: -35
+Incorrect definition of linear equation(-5)
+Incorrect Right Riemann Sum(-5)
+Wrongly printing each interval(-5)
+Wrongly printing Left Triangle BCD(-5)
+Wrongly printing Right Triangle BAD(-5)
+Wrongly printing Total Area ABCD(-5)
+</v>
+      </c>
+      <c r="G19" s="12">
+        <f>'Question 2'!D20+'Question 3'!D20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="2" customFormat="1" ht="187.2">
       <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="33" t="s">
         <v>81</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" s="2" customFormat="1">
+      <c r="F20" s="12" t="str">
+        <f>'Question 2'!O21&amp;'Question 3'!O21</f>
+        <v xml:space="preserve">Question 2: -26
+Wrong non-alphanumerical error message(-5)
+Incorrect termination condition(-5)
+Incorrect finding smallest possible base(-5)
+Incorrect convert to decimal number(-5)
+Wrongly printing base and decimal(-3)
+Question 3: -20
+Incorrect Right Riemann Sum(-5)
+Wrongly printing Left Triangle BCD(-2)
+Incorrect passing function(-4)
+Passing wrong variable(-4)
+</v>
+      </c>
+      <c r="G20" s="12">
+        <f>'Question 2'!D21+'Question 3'!D21</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="2" customFormat="1" ht="171.6">
       <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="F21" s="12" t="str">
+        <f>'Question 2'!O22&amp;'Question 3'!O22</f>
+        <v xml:space="preserve">Question 2: -35
+Wrong non-alphanumerical error message(-5)
+Incorrect finding smallest possible base(-5)
+Incorrect convert to decimal number(-5)
+Wrongly printing base and decimal(-5)
+Wrongly printing binary number(-5)
+Multiple compile error(-8)
+Question 3: -7
+Incorrect Right Riemann Sum(-2)
+Wrongly printing Left Triangle BCD(-5)
+</v>
+      </c>
+      <c r="G21" s="12">
+        <f>'Question 2'!D22+'Question 3'!D22</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="234">
       <c r="A22" s="9">
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="33" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="F22" s="12" t="str">
+        <f>'Question 2'!O23&amp;'Question 3'!O23</f>
+        <v xml:space="preserve">Question 2: -35
+Wrong non-alphanumerical error message(-5)
+Incorrect termination condition(-5)
+Incorrect finding smallest possible base(-5)
+Incorrect convert to decimal number(-5)
+Wrongly printing base and decimal(-5)
+Wrongly printing binary number(-5)
+Question 3: -35
+Incorrect definition of linear equation(-5)
+Incorrect Right Riemann Sum(-5)
+Wrongly printing each interval(-5)
+Wrongly printing Left Triangle BCD(-5)
+Wrongly printing Right Triangle BAD(-5)
+Wrongly printing Total Area ABCD(-5)
+</v>
+      </c>
+      <c r="G22" s="12">
+        <f>'Question 2'!D23+'Question 3'!D23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="234">
       <c r="A23" s="9">
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="33" t="s">
         <v>92</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="F23" s="12" t="str">
+        <f>'Question 2'!O24&amp;'Question 3'!O24</f>
+        <v xml:space="preserve">Question 2: -35
+Wrong non-alphanumerical error message(-5)
+Incorrect termination condition(-5)
+Incorrect finding smallest possible base(-5)
+Incorrect convert to decimal number(-5)
+Wrongly printing base and decimal(-5)
+Wrongly printing binary number(-5)
+Question 3: -35
+Incorrect definition of linear equation(-5)
+Incorrect Right Riemann Sum(-5)
+Wrongly printing each interval(-5)
+Wrongly printing Left Triangle BCD(-5)
+Wrongly printing Right Triangle BAD(-5)
+Wrongly printing Total Area ABCD(-5)
+</v>
+      </c>
+      <c r="G23" s="12">
+        <f>'Question 2'!D24+'Question 3'!D24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="234">
       <c r="A24" s="9">
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="33" t="s">
         <v>96</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="13"/>
+      <c r="F24" s="12" t="str">
+        <f>'Question 2'!O25&amp;'Question 3'!O25</f>
+        <v xml:space="preserve">Question 2: -35
+Wrong non-alphanumerical error message(-5)
+Incorrect termination condition(-5)
+Incorrect finding smallest possible base(-5)
+Incorrect convert to decimal number(-5)
+Wrongly printing base and decimal(-5)
+Wrongly printing binary number(-5)
+Question 3: -35
+Incorrect definition of linear equation(-5)
+Incorrect Right Riemann Sum(-5)
+Wrongly printing each interval(-5)
+Wrongly printing Left Triangle BCD(-5)
+Wrongly printing Right Triangle BAD(-5)
+Wrongly printing Total Area ABCD(-5)
+</v>
+      </c>
+      <c r="G24" s="12">
+        <f>'Question 2'!D25+'Question 3'!D25</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E24">
@@ -1493,1481 +1924,1441 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E270BD7F-9147-4F13-A4BF-AC292858C9AC}">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="23" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="23" customWidth="1"/>
-    <col min="3" max="4" width="10.5546875" style="23" customWidth="1"/>
-    <col min="5" max="11" width="15.77734375" style="23" customWidth="1"/>
-    <col min="12" max="12" width="35.77734375" style="23" customWidth="1"/>
-    <col min="13" max="14" width="5.77734375" style="23" customWidth="1"/>
-    <col min="15" max="15" width="35.77734375" style="23" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="23"/>
+    <col min="1" max="1" width="5.77734375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="29" customWidth="1"/>
+    <col min="3" max="4" width="10.5546875" style="29" customWidth="1"/>
+    <col min="5" max="11" width="15.77734375" style="29" customWidth="1"/>
+    <col min="12" max="12" width="40.77734375" style="29" customWidth="1"/>
+    <col min="13" max="14" width="5.77734375" style="29" customWidth="1"/>
+    <col min="15" max="15" width="45.77734375" style="29" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33" t="s">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="7">
-        <v>5</v>
-      </c>
-      <c r="F1" s="7">
-        <v>5</v>
-      </c>
-      <c r="G1" s="7">
-        <v>5</v>
-      </c>
-      <c r="H1" s="7">
-        <v>5</v>
-      </c>
-      <c r="I1" s="7">
-        <v>5</v>
-      </c>
-      <c r="J1" s="7">
-        <v>5</v>
-      </c>
-      <c r="K1" s="7">
-        <v>5</v>
-      </c>
-      <c r="L1" s="31" t="s">
+      <c r="E1" s="8">
+        <v>5</v>
+      </c>
+      <c r="F1" s="8">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8">
+        <v>5</v>
+      </c>
+      <c r="H1" s="8">
+        <v>5</v>
+      </c>
+      <c r="I1" s="8">
+        <v>5</v>
+      </c>
+      <c r="J1" s="8">
+        <v>5</v>
+      </c>
+      <c r="K1" s="8">
+        <v>5</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="45" customHeight="1">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="46.8">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>114</v>
-      </c>
       <c r="J2" s="8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="20">
+        <v>106</v>
+      </c>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+    </row>
+    <row r="3" spans="1:15" ht="78">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7">
-        <f>35-SUM(E3:K3,N3)</f>
+      <c r="D3" s="8">
+        <f>IF(35-SUM(E3:K3,N3)&lt;0, 0, 35-SUM(E3:K3,N3))</f>
         <v>24</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>3</v>
       </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>5</v>
-      </c>
-      <c r="I3" s="7">
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>5</v>
+      </c>
+      <c r="I3" s="8">
         <v>3</v>
       </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+      <c r="L3" s="20"/>
+      <c r="M3" s="8">
+        <v>0</v>
+      </c>
+      <c r="N3" s="8">
         <f t="shared" ref="N3:N25" si="0">IF(4*M3&lt;=20, 4*M3, 20)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="35" t="str">
+      <c r="O3" s="26" t="str">
         <f>O$27&amp;IF(D3=35,"great",D3-35)&amp;CHAR(10)&amp;
 IF(E3=0,"",O$28&amp;"(-"&amp;E3&amp;")"&amp;CHAR(10))&amp;
 IF(G3=0,"",O$29&amp;"(-"&amp;G3&amp;")"&amp;CHAR(10))&amp;
 IF(H3=0,"",O$30&amp;"(-"&amp;H3&amp;")"&amp;CHAR(10))&amp;
 IF(F3=0,"",O$31&amp;"(-"&amp;F3&amp;")"&amp;CHAR(10))&amp;
 IF(I3=0,"",O$32&amp;"(-"&amp;I3&amp;")"&amp;CHAR(10))&amp;
-IF(J3=0,"",O$33&amp;"(-"&amp;J3&amp;")"&amp;CHAR(10))&amp;L3</f>
+IF(J3=0,"",O$33&amp;"(-"&amp;J3&amp;")"&amp;CHAR(10))&amp;
+IF(L3="","",L3&amp;CHAR(10))</f>
         <v xml:space="preserve">Question 2: -11
-Incorrect input hexadecimal number(-3)
-Incorrect addition by digit(-5)
-Wrong overflow detection(-3)
-</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="20">
+Wrong non-alphanumerical error message(-3)
+Incorrect finding smallest possible base(-5)
+Wrongly printing base and decimal(-3)
+</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="109.2">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="7">
-        <f>35-SUM(E4:K4,N4)</f>
+      <c r="D4" s="8">
+        <f t="shared" ref="D4:D25" si="1">IF(35-SUM(E4:K4,N4)&lt;0, 0, 35-SUM(E4:K4,N4))</f>
         <v>13</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <v>3</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="8">
         <v>3</v>
       </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>5</v>
-      </c>
-      <c r="I4" s="7">
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>5</v>
+      </c>
+      <c r="I4" s="8">
         <v>3</v>
       </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="M4" s="7">
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="M4" s="8">
         <v>2</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="O4" s="35" t="str">
+      <c r="O4" s="26" t="str">
         <f>O$27&amp;IF(D4=35,"great",D4-35)&amp;CHAR(10)&amp;
 IF(E4=0,"",O$28&amp;"(-"&amp;E4&amp;")"&amp;CHAR(10))&amp;
 IF(G4=0,"",O$29&amp;"(-"&amp;G4&amp;")"&amp;CHAR(10))&amp;
 IF(H4=0,"",O$30&amp;"(-"&amp;H4&amp;")"&amp;CHAR(10))&amp;
 IF(F4=0,"",O$31&amp;"(-"&amp;F4&amp;")"&amp;CHAR(10))&amp;
 IF(I4=0,"",O$32&amp;"(-"&amp;I4&amp;")"&amp;CHAR(10))&amp;
-IF(J4=0,"",O$33&amp;"(-"&amp;J4&amp;")"&amp;CHAR(10))&amp;L4</f>
-        <v>Question 2: -22
-Incorrect input hexadecimal number(-3)
-Incorrect addition by digit(-5)
-Incorrect sum by digit(-3)
-Wrong overflow detection(-3)
-Using variables without initialize(-8)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="20">
+IF(J4=0,"",O$33&amp;"(-"&amp;J4&amp;")"&amp;CHAR(10))&amp;
+IF(L4="","",L4&amp;CHAR(10))</f>
+        <v xml:space="preserve">Question 2: -22
+Wrong non-alphanumerical error message(-3)
+Incorrect finding smallest possible base(-5)
+Incorrect convert to decimal number(-3)
+Wrongly printing base and decimal(-3)
+Using variables without initialize(-8)
+</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="31.2">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="7">
-        <f>35-SUM(E5:K5,N5)</f>
+      <c r="D5" s="8">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0</v>
+      </c>
+      <c r="L5" s="20"/>
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O5" s="35" t="str">
-        <f>O$27&amp;IF(D5=35,"great",D5-35)&amp;CHAR(10)&amp;
+      <c r="O5" s="26" t="str">
+        <f t="shared" ref="O5:O25" si="2">O$27&amp;IF(D5=35,"great",D5-35)&amp;CHAR(10)&amp;
 IF(E5=0,"",O$28&amp;"(-"&amp;E5&amp;")"&amp;CHAR(10))&amp;
 IF(G5=0,"",O$29&amp;"(-"&amp;G5&amp;")"&amp;CHAR(10))&amp;
 IF(H5=0,"",O$30&amp;"(-"&amp;H5&amp;")"&amp;CHAR(10))&amp;
 IF(F5=0,"",O$31&amp;"(-"&amp;F5&amp;")"&amp;CHAR(10))&amp;
 IF(I5=0,"",O$32&amp;"(-"&amp;I5&amp;")"&amp;CHAR(10))&amp;
-IF(J5=0,"",O$33&amp;"(-"&amp;J5&amp;")"&amp;CHAR(10))&amp;L5</f>
+IF(J5=0,"",O$33&amp;"(-"&amp;J5&amp;")"&amp;CHAR(10))&amp;
+IF(L5="","",L5&amp;CHAR(10))</f>
         <v xml:space="preserve">Question 2: great
 </v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="20">
+    <row r="6" spans="1:15" ht="78">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="7">
-        <f>35-SUM(E6:K6,N6)</f>
+      <c r="D6" s="8">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="E6" s="7">
-        <v>5</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="E6" s="8">
+        <v>5</v>
+      </c>
+      <c r="F6" s="8">
         <v>3</v>
       </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <v>0</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="M6" s="7">
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="M6" s="8">
         <v>1</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="O6" s="35" t="str">
-        <f>O$27&amp;IF(D6=35,"great",D6-35)&amp;CHAR(10)&amp;
-IF(E6=0,"",O$28&amp;"(-"&amp;E6&amp;")"&amp;CHAR(10))&amp;
-IF(G6=0,"",O$29&amp;"(-"&amp;G6&amp;")"&amp;CHAR(10))&amp;
-IF(H6=0,"",O$30&amp;"(-"&amp;H6&amp;")"&amp;CHAR(10))&amp;
-IF(F6=0,"",O$31&amp;"(-"&amp;F6&amp;")"&amp;CHAR(10))&amp;
-IF(I6=0,"",O$32&amp;"(-"&amp;I6&amp;")"&amp;CHAR(10))&amp;
-IF(J6=0,"",O$33&amp;"(-"&amp;J6&amp;")"&amp;CHAR(10))&amp;L6</f>
-        <v>Question 2: -12
-Incorrect input hexadecimal number(-5)
-Incorrect sum by digit(-3)
-Improper variable initialize(-4)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="20">
-        <v>5</v>
-      </c>
-      <c r="B7" s="20" t="s">
+      <c r="O6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 2: -12
+Wrong non-alphanumerical error message(-5)
+Incorrect convert to decimal number(-3)
+Improper variable initialize(-4)
+</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="124.8">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="7">
-        <f>35-SUM(E7:K7,N7)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>5</v>
-      </c>
-      <c r="F7" s="7">
-        <v>5</v>
-      </c>
-      <c r="G7" s="7">
-        <v>5</v>
-      </c>
-      <c r="H7" s="7">
-        <v>5</v>
-      </c>
-      <c r="I7" s="7">
-        <v>5</v>
-      </c>
-      <c r="J7" s="7">
-        <v>5</v>
-      </c>
-      <c r="K7" s="7">
-        <v>5</v>
-      </c>
-      <c r="L7" s="24"/>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
+      <c r="D7" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>5</v>
+      </c>
+      <c r="F7" s="8">
+        <v>5</v>
+      </c>
+      <c r="G7" s="8">
+        <v>5</v>
+      </c>
+      <c r="H7" s="8">
+        <v>5</v>
+      </c>
+      <c r="I7" s="8">
+        <v>5</v>
+      </c>
+      <c r="J7" s="8">
+        <v>5</v>
+      </c>
+      <c r="K7" s="8">
+        <v>5</v>
+      </c>
+      <c r="L7" s="20"/>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O7" s="35" t="str">
-        <f>O$27&amp;IF(D7=35,"great",D7-35)&amp;CHAR(10)&amp;
-IF(E7=0,"",O$28&amp;"(-"&amp;E7&amp;")"&amp;CHAR(10))&amp;
-IF(G7=0,"",O$29&amp;"(-"&amp;G7&amp;")"&amp;CHAR(10))&amp;
-IF(H7=0,"",O$30&amp;"(-"&amp;H7&amp;")"&amp;CHAR(10))&amp;
-IF(F7=0,"",O$31&amp;"(-"&amp;F7&amp;")"&amp;CHAR(10))&amp;
-IF(I7=0,"",O$32&amp;"(-"&amp;I7&amp;")"&amp;CHAR(10))&amp;
-IF(J7=0,"",O$33&amp;"(-"&amp;J7&amp;")"&amp;CHAR(10))&amp;L7</f>
+      <c r="O7" s="26" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Question 2: -35
-Incorrect input hexadecimal number(-5)
+Wrong non-alphanumerical error message(-5)
 Incorrect termination condition(-5)
-Incorrect addition by digit(-5)
-Incorrect sum by digit(-5)
-Wrong overflow detection(-5)
-Incorrect print format(-5)
-</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="20">
+Incorrect finding smallest possible base(-5)
+Incorrect convert to decimal number(-5)
+Wrongly printing base and decimal(-5)
+Wrongly printing binary number(-5)
+</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="78">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="7">
-        <f>35-SUM(E8:K8,N8)</f>
+      <c r="D8" s="8">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="E8" s="7">
-        <v>5</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="E8" s="8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="8">
         <v>3</v>
       </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>5</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0</v>
-      </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>5</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="20"/>
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O8" s="35" t="str">
-        <f>O$27&amp;IF(D8=35,"great",D8-35)&amp;CHAR(10)&amp;
-IF(E8=0,"",O$28&amp;"(-"&amp;E8&amp;")"&amp;CHAR(10))&amp;
-IF(G8=0,"",O$29&amp;"(-"&amp;G8&amp;")"&amp;CHAR(10))&amp;
-IF(H8=0,"",O$30&amp;"(-"&amp;H8&amp;")"&amp;CHAR(10))&amp;
-IF(F8=0,"",O$31&amp;"(-"&amp;F8&amp;")"&amp;CHAR(10))&amp;
-IF(I8=0,"",O$32&amp;"(-"&amp;I8&amp;")"&amp;CHAR(10))&amp;
-IF(J8=0,"",O$33&amp;"(-"&amp;J8&amp;")"&amp;CHAR(10))&amp;L8</f>
+      <c r="O8" s="26" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Question 2: -13
-Incorrect input hexadecimal number(-5)
-Incorrect addition by digit(-5)
-Incorrect sum by digit(-3)
-</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="20">
+Wrong non-alphanumerical error message(-5)
+Incorrect finding smallest possible base(-5)
+Incorrect convert to decimal number(-3)
+</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="109.2">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="7">
-        <f>35-SUM(E9:K9,N9)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="7">
-        <v>5</v>
-      </c>
-      <c r="F9" s="7">
-        <v>5</v>
-      </c>
-      <c r="G9" s="7">
-        <v>5</v>
-      </c>
-      <c r="H9" s="7">
-        <v>5</v>
-      </c>
-      <c r="I9" s="7">
-        <v>5</v>
-      </c>
-      <c r="J9" s="7">
-        <v>5</v>
-      </c>
-      <c r="K9" s="7">
-        <v>5</v>
-      </c>
-      <c r="L9" s="35"/>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
+      <c r="D9" s="8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E9" s="8">
+        <v>5</v>
+      </c>
+      <c r="F9" s="8">
+        <v>5</v>
+      </c>
+      <c r="G9" s="8">
+        <v>5</v>
+      </c>
+      <c r="H9" s="8">
+        <v>5</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>5</v>
+      </c>
+      <c r="K9" s="8">
+        <v>5</v>
+      </c>
+      <c r="L9" s="26"/>
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O9" s="35" t="str">
+      <c r="O9" s="26" t="str">
         <f>O$27&amp;IF(D9=35,"great",D9-35)&amp;CHAR(10)&amp;
 IF(E9=0,"",O$28&amp;"(-"&amp;E9&amp;")"&amp;CHAR(10))&amp;
 IF(G9=0,"",O$29&amp;"(-"&amp;G9&amp;")"&amp;CHAR(10))&amp;
 IF(H9=0,"",O$30&amp;"(-"&amp;H9&amp;")"&amp;CHAR(10))&amp;
 IF(F9=0,"",O$31&amp;"(-"&amp;F9&amp;")"&amp;CHAR(10))&amp;
 IF(I9=0,"",O$32&amp;"(-"&amp;I9&amp;")"&amp;CHAR(10))&amp;
-IF(J9=0,"",O$33&amp;"(-"&amp;J9&amp;")"&amp;CHAR(10))&amp;L9</f>
-        <v xml:space="preserve">Question 2: -35
-Incorrect input hexadecimal number(-5)
+IF(J9=0,"",O$33&amp;"(-"&amp;J9&amp;")"&amp;CHAR(10))&amp;
+IF(L9="","",L9&amp;CHAR(10))</f>
+        <v xml:space="preserve">Question 2: -30
+Wrong non-alphanumerical error message(-5)
 Incorrect termination condition(-5)
-Incorrect addition by digit(-5)
-Incorrect sum by digit(-5)
-Wrong overflow detection(-5)
-Incorrect print format(-5)
-</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="20">
+Incorrect finding smallest possible base(-5)
+Incorrect convert to decimal number(-5)
+Wrongly printing binary number(-5)
+</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="124.8">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="7">
-        <f>35-SUM(E10:K10,N10)</f>
-        <v>4</v>
-      </c>
-      <c r="E10" s="7">
-        <v>5</v>
-      </c>
-      <c r="F10" s="7">
-        <v>5</v>
-      </c>
-      <c r="G10" s="7">
-        <v>5</v>
-      </c>
-      <c r="H10" s="7">
-        <v>5</v>
-      </c>
-      <c r="I10" s="7">
+      <c r="D10" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E10" s="8">
+        <v>5</v>
+      </c>
+      <c r="F10" s="8">
+        <v>5</v>
+      </c>
+      <c r="G10" s="8">
+        <v>5</v>
+      </c>
+      <c r="H10" s="8">
+        <v>5</v>
+      </c>
+      <c r="I10" s="8">
         <v>3</v>
       </c>
-      <c r="J10" s="7">
-        <v>5</v>
-      </c>
-      <c r="K10" s="7">
+      <c r="J10" s="8">
+        <v>5</v>
+      </c>
+      <c r="K10" s="8">
+        <v>5</v>
+      </c>
+      <c r="L10" s="20"/>
+      <c r="M10" s="8">
+        <v>0</v>
+      </c>
+      <c r="N10" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 2: -33
+Wrong non-alphanumerical error message(-5)
+Incorrect termination condition(-5)
+Incorrect finding smallest possible base(-5)
+Incorrect convert to decimal number(-5)
+Wrongly printing base and decimal(-3)
+Wrongly printing binary number(-5)
+</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="78">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="E11" s="8">
         <v>3</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
+      <c r="F11" s="8">
+        <v>5</v>
+      </c>
+      <c r="G11" s="8">
+        <v>5</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <v>3</v>
+      </c>
+      <c r="L11" s="20"/>
+      <c r="M11" s="8">
+        <v>0</v>
+      </c>
+      <c r="N11" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O10" s="35" t="str">
-        <f>O$27&amp;IF(D10=35,"great",D10-35)&amp;CHAR(10)&amp;
-IF(E10=0,"",O$28&amp;"(-"&amp;E10&amp;")"&amp;CHAR(10))&amp;
-IF(G10=0,"",O$29&amp;"(-"&amp;G10&amp;")"&amp;CHAR(10))&amp;
-IF(H10=0,"",O$30&amp;"(-"&amp;H10&amp;")"&amp;CHAR(10))&amp;
-IF(F10=0,"",O$31&amp;"(-"&amp;F10&amp;")"&amp;CHAR(10))&amp;
-IF(I10=0,"",O$32&amp;"(-"&amp;I10&amp;")"&amp;CHAR(10))&amp;
-IF(J10=0,"",O$33&amp;"(-"&amp;J10&amp;")"&amp;CHAR(10))&amp;L10</f>
-        <v xml:space="preserve">Question 2: -31
-Incorrect input hexadecimal number(-5)
-Incorrect termination condition(-5)
-Incorrect addition by digit(-5)
-Incorrect sum by digit(-5)
-Wrong overflow detection(-3)
-Incorrect print format(-5)
-</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="20">
-        <v>9</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="7">
-        <f>35-SUM(E11:K11,N11)</f>
-        <v>19</v>
-      </c>
-      <c r="E11" s="7">
-        <v>3</v>
-      </c>
-      <c r="F11" s="7">
-        <v>5</v>
-      </c>
-      <c r="G11" s="7">
-        <v>5</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7">
-        <v>0</v>
-      </c>
-      <c r="K11" s="7">
-        <v>3</v>
-      </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="35" t="str">
+      <c r="O11" s="26" t="str">
         <f>O$27&amp;IF(D11=35,"great",D11-35)&amp;CHAR(10)&amp;
 IF(E11=0,"",O$28&amp;"(-"&amp;E11&amp;")"&amp;CHAR(10))&amp;
 IF(G11=0,"",O$29&amp;"(-"&amp;G11&amp;")"&amp;CHAR(10))&amp;
 IF(H11=0,"",O$30&amp;"(-"&amp;H11&amp;")"&amp;CHAR(10))&amp;
 IF(F11=0,"",O$31&amp;"(-"&amp;F11&amp;")"&amp;CHAR(10))&amp;
 IF(I11=0,"",O$32&amp;"(-"&amp;I11&amp;")"&amp;CHAR(10))&amp;
-IF(J11=0,"",O$33&amp;"(-"&amp;J11&amp;")"&amp;CHAR(10))&amp;L11</f>
+IF(J11=0,"",O$33&amp;"(-"&amp;J11&amp;")"&amp;CHAR(10))&amp;
+IF(L11="","",L11&amp;CHAR(10))</f>
         <v xml:space="preserve">Question 2: -16
-Incorrect input hexadecimal number(-3)
+Wrong non-alphanumerical error message(-3)
 Incorrect termination condition(-5)
-Incorrect sum by digit(-5)
-</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="20">
+Incorrect convert to decimal number(-5)
+</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="93.6">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="7">
-        <f>35-SUM(E12:K12,N12)</f>
+      <c r="D12" s="8">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E12" s="7">
-        <v>5</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
+      <c r="E12" s="8">
+        <v>5</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
         <v>3</v>
       </c>
-      <c r="J12" s="7">
-        <v>0</v>
-      </c>
-      <c r="K12" s="7">
-        <v>0</v>
-      </c>
-      <c r="L12" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="M12" s="7">
-        <v>5</v>
-      </c>
-      <c r="N12" s="7">
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" s="8">
+        <v>5</v>
+      </c>
+      <c r="N12" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="O12" s="35" t="str">
-        <f>O$27&amp;IF(D12=35,"great",D12-35)&amp;CHAR(10)&amp;
-IF(E12=0,"",O$28&amp;"(-"&amp;E12&amp;")"&amp;CHAR(10))&amp;
-IF(G12=0,"",O$29&amp;"(-"&amp;G12&amp;")"&amp;CHAR(10))&amp;
-IF(H12=0,"",O$30&amp;"(-"&amp;H12&amp;")"&amp;CHAR(10))&amp;
-IF(F12=0,"",O$31&amp;"(-"&amp;F12&amp;")"&amp;CHAR(10))&amp;
-IF(I12=0,"",O$32&amp;"(-"&amp;I12&amp;")"&amp;CHAR(10))&amp;
-IF(J12=0,"",O$33&amp;"(-"&amp;J12&amp;")"&amp;CHAR(10))&amp;L12</f>
-        <v>Question 2: -28
-Incorrect input hexadecimal number(-5)
-Wrong overflow detection(-3)
+      <c r="O12" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 2: -28
+Wrong non-alphanumerical error message(-5)
+Wrongly printing base and decimal(-3)
 Using variables without initialize(-12)
-Incorrect type of variables(-8)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="20">
+Incorrect type of variables(-8)
+</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="109.2">
+      <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="7">
-        <f>35-SUM(E13:K13,N13)</f>
+      <c r="D13" s="8">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E13" s="7">
-        <v>5</v>
-      </c>
-      <c r="F13" s="7">
-        <v>5</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
+      <c r="E13" s="8">
+        <v>5</v>
+      </c>
+      <c r="F13" s="8">
+        <v>5</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <v>5</v>
+      </c>
+      <c r="I13" s="8">
         <v>3</v>
       </c>
-      <c r="J13" s="7">
-        <v>5</v>
-      </c>
-      <c r="K13" s="7">
-        <v>5</v>
-      </c>
-      <c r="L13" s="24"/>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
+      <c r="J13" s="8">
+        <v>5</v>
+      </c>
+      <c r="K13" s="8">
+        <v>5</v>
+      </c>
+      <c r="L13" s="20"/>
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
+      <c r="N13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O13" s="35" t="str">
-        <f>O$27&amp;IF(D13=35,"great",D13-35)&amp;CHAR(10)&amp;
-IF(E13=0,"",O$28&amp;"(-"&amp;E13&amp;")"&amp;CHAR(10))&amp;
-IF(G13=0,"",O$29&amp;"(-"&amp;G13&amp;")"&amp;CHAR(10))&amp;
-IF(H13=0,"",O$30&amp;"(-"&amp;H13&amp;")"&amp;CHAR(10))&amp;
-IF(F13=0,"",O$31&amp;"(-"&amp;F13&amp;")"&amp;CHAR(10))&amp;
-IF(I13=0,"",O$32&amp;"(-"&amp;I13&amp;")"&amp;CHAR(10))&amp;
-IF(J13=0,"",O$33&amp;"(-"&amp;J13&amp;")"&amp;CHAR(10))&amp;L13</f>
+      <c r="O13" s="26" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Question 2: -28
-Incorrect input hexadecimal number(-5)
-Incorrect addition by digit(-5)
-Incorrect sum by digit(-5)
-Wrong overflow detection(-3)
-Incorrect print format(-5)
-</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="20">
+Wrong non-alphanumerical error message(-5)
+Incorrect finding smallest possible base(-5)
+Incorrect convert to decimal number(-5)
+Wrongly printing base and decimal(-3)
+Wrongly printing binary number(-5)
+</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="93.6">
+      <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="7">
-        <f>35-SUM(E14:K14,N14)</f>
-        <v>35</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7">
-        <v>0</v>
-      </c>
-      <c r="K14" s="7">
-        <v>0</v>
-      </c>
-      <c r="L14" s="24"/>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
+      <c r="D14" s="8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E14" s="8">
+        <v>5</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>5</v>
+      </c>
+      <c r="H14" s="8">
+        <v>5</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
+        <v>5</v>
+      </c>
+      <c r="K14" s="8">
+        <v>5</v>
+      </c>
+      <c r="L14" s="20"/>
+      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+      <c r="N14" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O14" s="35" t="str">
-        <f>O$27&amp;IF(D14=35,"great",D14-35)&amp;CHAR(10)&amp;
-IF(E14=0,"",O$28&amp;"(-"&amp;E14&amp;")"&amp;CHAR(10))&amp;
-IF(G14=0,"",O$29&amp;"(-"&amp;G14&amp;")"&amp;CHAR(10))&amp;
-IF(H14=0,"",O$30&amp;"(-"&amp;H14&amp;")"&amp;CHAR(10))&amp;
-IF(F14=0,"",O$31&amp;"(-"&amp;F14&amp;")"&amp;CHAR(10))&amp;
-IF(I14=0,"",O$32&amp;"(-"&amp;I14&amp;")"&amp;CHAR(10))&amp;
-IF(J14=0,"",O$33&amp;"(-"&amp;J14&amp;")"&amp;CHAR(10))&amp;L14</f>
-        <v xml:space="preserve">Question 2: great
-</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="20">
+      <c r="O14" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 2: -25
+Wrong non-alphanumerical error message(-5)
+Incorrect termination condition(-5)
+Incorrect finding smallest possible base(-5)
+Wrongly printing binary number(-5)
+</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="93.6">
+      <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="7">
-        <f>35-SUM(E15:K15,N15)</f>
-        <v>35</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7">
-        <v>0</v>
-      </c>
-      <c r="K15" s="7">
-        <v>0</v>
-      </c>
-      <c r="L15" s="24"/>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7">
+      <c r="D15" s="8">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="E15" s="8">
+        <v>5</v>
+      </c>
+      <c r="F15" s="8">
+        <v>3</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
+        <v>3</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
+      <c r="K15" s="8">
+        <v>3</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="M15" s="8">
+        <v>1</v>
+      </c>
+      <c r="N15" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="35" t="str">
-        <f>O$27&amp;IF(D15=35,"great",D15-35)&amp;CHAR(10)&amp;
-IF(E15=0,"",O$28&amp;"(-"&amp;E15&amp;")"&amp;CHAR(10))&amp;
-IF(G15=0,"",O$29&amp;"(-"&amp;G15&amp;")"&amp;CHAR(10))&amp;
-IF(H15=0,"",O$30&amp;"(-"&amp;H15&amp;")"&amp;CHAR(10))&amp;
-IF(F15=0,"",O$31&amp;"(-"&amp;F15&amp;")"&amp;CHAR(10))&amp;
-IF(I15=0,"",O$32&amp;"(-"&amp;I15&amp;")"&amp;CHAR(10))&amp;
-IF(J15=0,"",O$33&amp;"(-"&amp;J15&amp;")"&amp;CHAR(10))&amp;L15</f>
-        <v xml:space="preserve">Question 2: great
-</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="20">
+        <v>4</v>
+      </c>
+      <c r="O15" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 2: -18
+Wrong non-alphanumerical error message(-5)
+Incorrect convert to decimal number(-3)
+Wrongly printing base and decimal(-3)
+Using same loop value in nested loop(-4)
+</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="93.6">
+      <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="7">
-        <f>35-SUM(E16:K16,N16)</f>
-        <v>35</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7">
-        <v>0</v>
-      </c>
-      <c r="K16" s="7">
-        <v>0</v>
-      </c>
-      <c r="L16" s="24"/>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
+      <c r="D16" s="8">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E16" s="8">
+        <v>5</v>
+      </c>
+      <c r="F16" s="8">
+        <v>5</v>
+      </c>
+      <c r="G16" s="8">
+        <v>5</v>
+      </c>
+      <c r="H16" s="8">
+        <v>5</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0</v>
+      </c>
+      <c r="K16" s="8">
+        <v>3</v>
+      </c>
+      <c r="L16" s="20"/>
+      <c r="M16" s="8">
+        <v>0</v>
+      </c>
+      <c r="N16" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O16" s="35" t="str">
-        <f>O$27&amp;IF(D16=35,"great",D16-35)&amp;CHAR(10)&amp;
-IF(E16=0,"",O$28&amp;"(-"&amp;E16&amp;")"&amp;CHAR(10))&amp;
-IF(G16=0,"",O$29&amp;"(-"&amp;G16&amp;")"&amp;CHAR(10))&amp;
-IF(H16=0,"",O$30&amp;"(-"&amp;H16&amp;")"&amp;CHAR(10))&amp;
-IF(F16=0,"",O$31&amp;"(-"&amp;F16&amp;")"&amp;CHAR(10))&amp;
-IF(I16=0,"",O$32&amp;"(-"&amp;I16&amp;")"&amp;CHAR(10))&amp;
-IF(J16=0,"",O$33&amp;"(-"&amp;J16&amp;")"&amp;CHAR(10))&amp;L16</f>
-        <v xml:space="preserve">Question 2: great
-</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="20">
+      <c r="O16" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 2: -23
+Wrong non-alphanumerical error message(-5)
+Incorrect termination condition(-5)
+Incorrect finding smallest possible base(-5)
+Incorrect convert to decimal number(-5)
+</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="124.8">
+      <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="7">
-        <f>35-SUM(E17:K17,N17)</f>
-        <v>35</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7">
-        <v>0</v>
-      </c>
-      <c r="K17" s="7">
-        <v>0</v>
-      </c>
-      <c r="L17" s="24"/>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
+      <c r="D17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>5</v>
+      </c>
+      <c r="F17" s="8">
+        <v>5</v>
+      </c>
+      <c r="G17" s="8">
+        <v>5</v>
+      </c>
+      <c r="H17" s="8">
+        <v>5</v>
+      </c>
+      <c r="I17" s="8">
+        <v>5</v>
+      </c>
+      <c r="J17" s="8">
+        <v>5</v>
+      </c>
+      <c r="K17" s="8">
+        <v>5</v>
+      </c>
+      <c r="L17" s="20"/>
+      <c r="M17" s="8">
+        <v>0</v>
+      </c>
+      <c r="N17" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O17" s="35" t="str">
-        <f>O$27&amp;IF(D17=35,"great",D17-35)&amp;CHAR(10)&amp;
-IF(E17=0,"",O$28&amp;"(-"&amp;E17&amp;")"&amp;CHAR(10))&amp;
-IF(G17=0,"",O$29&amp;"(-"&amp;G17&amp;")"&amp;CHAR(10))&amp;
-IF(H17=0,"",O$30&amp;"(-"&amp;H17&amp;")"&amp;CHAR(10))&amp;
-IF(F17=0,"",O$31&amp;"(-"&amp;F17&amp;")"&amp;CHAR(10))&amp;
-IF(I17=0,"",O$32&amp;"(-"&amp;I17&amp;")"&amp;CHAR(10))&amp;
-IF(J17=0,"",O$33&amp;"(-"&amp;J17&amp;")"&amp;CHAR(10))&amp;L17</f>
-        <v xml:space="preserve">Question 2: great
-</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="20">
+      <c r="O17" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 2: -35
+Wrong non-alphanumerical error message(-5)
+Incorrect termination condition(-5)
+Incorrect finding smallest possible base(-5)
+Incorrect convert to decimal number(-5)
+Wrongly printing base and decimal(-5)
+Wrongly printing binary number(-5)
+</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="124.8">
+      <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="7">
-        <f>35-SUM(E18:K18,N18)</f>
-        <v>35</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7">
-        <v>0</v>
-      </c>
-      <c r="K18" s="7">
-        <v>0</v>
-      </c>
-      <c r="L18" s="24"/>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
+      <c r="D18" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
+        <v>5</v>
+      </c>
+      <c r="F18" s="8">
+        <v>5</v>
+      </c>
+      <c r="G18" s="8">
+        <v>5</v>
+      </c>
+      <c r="H18" s="8">
+        <v>5</v>
+      </c>
+      <c r="I18" s="8">
+        <v>5</v>
+      </c>
+      <c r="J18" s="8">
+        <v>5</v>
+      </c>
+      <c r="K18" s="8">
+        <v>5</v>
+      </c>
+      <c r="L18" s="20"/>
+      <c r="M18" s="8">
+        <v>0</v>
+      </c>
+      <c r="N18" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O18" s="35" t="str">
-        <f>O$27&amp;IF(D18=35,"great",D18-35)&amp;CHAR(10)&amp;
-IF(E18=0,"",O$28&amp;"(-"&amp;E18&amp;")"&amp;CHAR(10))&amp;
-IF(G18=0,"",O$29&amp;"(-"&amp;G18&amp;")"&amp;CHAR(10))&amp;
-IF(H18=0,"",O$30&amp;"(-"&amp;H18&amp;")"&amp;CHAR(10))&amp;
-IF(F18=0,"",O$31&amp;"(-"&amp;F18&amp;")"&amp;CHAR(10))&amp;
-IF(I18=0,"",O$32&amp;"(-"&amp;I18&amp;")"&amp;CHAR(10))&amp;
-IF(J18=0,"",O$33&amp;"(-"&amp;J18&amp;")"&amp;CHAR(10))&amp;L18</f>
-        <v xml:space="preserve">Question 2: great
-</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="20">
+      <c r="O18" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 2: -35
+Wrong non-alphanumerical error message(-5)
+Incorrect termination condition(-5)
+Incorrect finding smallest possible base(-5)
+Incorrect convert to decimal number(-5)
+Wrongly printing base and decimal(-5)
+Wrongly printing binary number(-5)
+</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="124.8">
+      <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="7">
-        <f>35-SUM(E19:K19,N19)</f>
-        <v>35</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7">
-        <v>0</v>
-      </c>
-      <c r="K19" s="7">
-        <v>0</v>
-      </c>
-      <c r="L19" s="24"/>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
+      <c r="D19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
+        <v>5</v>
+      </c>
+      <c r="F19" s="8">
+        <v>5</v>
+      </c>
+      <c r="G19" s="8">
+        <v>5</v>
+      </c>
+      <c r="H19" s="8">
+        <v>5</v>
+      </c>
+      <c r="I19" s="8">
+        <v>5</v>
+      </c>
+      <c r="J19" s="8">
+        <v>5</v>
+      </c>
+      <c r="K19" s="8">
+        <v>5</v>
+      </c>
+      <c r="L19" s="20"/>
+      <c r="M19" s="8">
+        <v>0</v>
+      </c>
+      <c r="N19" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O19" s="35" t="str">
-        <f>O$27&amp;IF(D19=35,"great",D19-35)&amp;CHAR(10)&amp;
-IF(E19=0,"",O$28&amp;"(-"&amp;E19&amp;")"&amp;CHAR(10))&amp;
-IF(G19=0,"",O$29&amp;"(-"&amp;G19&amp;")"&amp;CHAR(10))&amp;
-IF(H19=0,"",O$30&amp;"(-"&amp;H19&amp;")"&amp;CHAR(10))&amp;
-IF(F19=0,"",O$31&amp;"(-"&amp;F19&amp;")"&amp;CHAR(10))&amp;
-IF(I19=0,"",O$32&amp;"(-"&amp;I19&amp;")"&amp;CHAR(10))&amp;
-IF(J19=0,"",O$33&amp;"(-"&amp;J19&amp;")"&amp;CHAR(10))&amp;L19</f>
-        <v xml:space="preserve">Question 2: great
-</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="20">
+      <c r="O19" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 2: -35
+Wrong non-alphanumerical error message(-5)
+Incorrect termination condition(-5)
+Incorrect finding smallest possible base(-5)
+Incorrect convert to decimal number(-5)
+Wrongly printing base and decimal(-5)
+Wrongly printing binary number(-5)
+</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="124.8">
+      <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="7">
-        <f>35-SUM(E20:K20,N20)</f>
-        <v>35</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7">
-        <v>0</v>
-      </c>
-      <c r="K20" s="7">
-        <v>0</v>
-      </c>
-      <c r="L20" s="24"/>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
+      <c r="D20" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>5</v>
+      </c>
+      <c r="F20" s="8">
+        <v>5</v>
+      </c>
+      <c r="G20" s="8">
+        <v>5</v>
+      </c>
+      <c r="H20" s="8">
+        <v>5</v>
+      </c>
+      <c r="I20" s="8">
+        <v>5</v>
+      </c>
+      <c r="J20" s="8">
+        <v>5</v>
+      </c>
+      <c r="K20" s="8">
+        <v>5</v>
+      </c>
+      <c r="L20" s="20"/>
+      <c r="M20" s="8">
+        <v>0</v>
+      </c>
+      <c r="N20" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O20" s="35" t="str">
+      <c r="O20" s="26" t="str">
         <f>O$27&amp;IF(D20=35,"great",D20-35)&amp;CHAR(10)&amp;
 IF(E20=0,"",O$28&amp;"(-"&amp;E20&amp;")"&amp;CHAR(10))&amp;
 IF(G20=0,"",O$29&amp;"(-"&amp;G20&amp;")"&amp;CHAR(10))&amp;
 IF(H20=0,"",O$30&amp;"(-"&amp;H20&amp;")"&amp;CHAR(10))&amp;
 IF(F20=0,"",O$31&amp;"(-"&amp;F20&amp;")"&amp;CHAR(10))&amp;
 IF(I20=0,"",O$32&amp;"(-"&amp;I20&amp;")"&amp;CHAR(10))&amp;
-IF(J20=0,"",O$33&amp;"(-"&amp;J20&amp;")"&amp;CHAR(10))&amp;L20</f>
-        <v xml:space="preserve">Question 2: great
-</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="20">
+IF(J20=0,"",O$33&amp;"(-"&amp;J20&amp;")"&amp;CHAR(10))&amp;
+IF(L20="","",L20&amp;CHAR(10))</f>
+        <v xml:space="preserve">Question 2: -35
+Wrong non-alphanumerical error message(-5)
+Incorrect termination condition(-5)
+Incorrect finding smallest possible base(-5)
+Incorrect convert to decimal number(-5)
+Wrongly printing base and decimal(-5)
+Wrongly printing binary number(-5)
+</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="109.2">
+      <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="7">
-        <f>35-SUM(E21:K21,N21)</f>
-        <v>35</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7">
-        <v>0</v>
-      </c>
-      <c r="K21" s="7">
-        <v>0</v>
-      </c>
-      <c r="L21" s="24"/>
-      <c r="M21" s="7">
-        <v>0</v>
-      </c>
-      <c r="N21" s="7">
+      <c r="D21" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E21" s="8">
+        <v>5</v>
+      </c>
+      <c r="F21" s="8">
+        <v>5</v>
+      </c>
+      <c r="G21" s="8">
+        <v>5</v>
+      </c>
+      <c r="H21" s="8">
+        <v>5</v>
+      </c>
+      <c r="I21" s="8">
+        <v>3</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0</v>
+      </c>
+      <c r="K21" s="8">
+        <v>3</v>
+      </c>
+      <c r="L21" s="20"/>
+      <c r="M21" s="8">
+        <v>0</v>
+      </c>
+      <c r="N21" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O21" s="35" t="str">
-        <f>O$27&amp;IF(D21=35,"great",D21-35)&amp;CHAR(10)&amp;
-IF(E21=0,"",O$28&amp;"(-"&amp;E21&amp;")"&amp;CHAR(10))&amp;
-IF(G21=0,"",O$29&amp;"(-"&amp;G21&amp;")"&amp;CHAR(10))&amp;
-IF(H21=0,"",O$30&amp;"(-"&amp;H21&amp;")"&amp;CHAR(10))&amp;
-IF(F21=0,"",O$31&amp;"(-"&amp;F21&amp;")"&amp;CHAR(10))&amp;
-IF(I21=0,"",O$32&amp;"(-"&amp;I21&amp;")"&amp;CHAR(10))&amp;
-IF(J21=0,"",O$33&amp;"(-"&amp;J21&amp;")"&amp;CHAR(10))&amp;L21</f>
-        <v xml:space="preserve">Question 2: great
-</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="20">
+      <c r="O21" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 2: -26
+Wrong non-alphanumerical error message(-5)
+Incorrect termination condition(-5)
+Incorrect finding smallest possible base(-5)
+Incorrect convert to decimal number(-5)
+Wrongly printing base and decimal(-3)
+</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="124.8">
+      <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="7">
-        <f>35-SUM(E22:K22,N22)</f>
-        <v>35</v>
-      </c>
-      <c r="E22" s="7">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7">
-        <v>0</v>
-      </c>
-      <c r="K22" s="7">
-        <v>0</v>
-      </c>
-      <c r="L22" s="24"/>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
+      <c r="D22" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="8">
+        <v>5</v>
+      </c>
+      <c r="F22" s="8">
+        <v>5</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8">
+        <v>5</v>
+      </c>
+      <c r="I22" s="8">
+        <v>5</v>
+      </c>
+      <c r="J22" s="8">
+        <v>5</v>
+      </c>
+      <c r="K22" s="8">
+        <v>5</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="M22" s="8">
+        <v>2</v>
+      </c>
+      <c r="N22" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="35" t="str">
+        <v>8</v>
+      </c>
+      <c r="O22" s="26" t="str">
         <f>O$27&amp;IF(D22=35,"great",D22-35)&amp;CHAR(10)&amp;
 IF(E22=0,"",O$28&amp;"(-"&amp;E22&amp;")"&amp;CHAR(10))&amp;
 IF(G22=0,"",O$29&amp;"(-"&amp;G22&amp;")"&amp;CHAR(10))&amp;
 IF(H22=0,"",O$30&amp;"(-"&amp;H22&amp;")"&amp;CHAR(10))&amp;
 IF(F22=0,"",O$31&amp;"(-"&amp;F22&amp;")"&amp;CHAR(10))&amp;
 IF(I22=0,"",O$32&amp;"(-"&amp;I22&amp;")"&amp;CHAR(10))&amp;
-IF(J22=0,"",O$33&amp;"(-"&amp;J22&amp;")"&amp;CHAR(10))&amp;L22</f>
-        <v xml:space="preserve">Question 2: great
-</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="20">
+IF(J22=0,"",O$33&amp;"(-"&amp;J22&amp;")"&amp;CHAR(10))&amp;
+IF(L22="","",L22&amp;CHAR(10))</f>
+        <v xml:space="preserve">Question 2: -35
+Wrong non-alphanumerical error message(-5)
+Incorrect finding smallest possible base(-5)
+Incorrect convert to decimal number(-5)
+Wrongly printing base and decimal(-5)
+Wrongly printing binary number(-5)
+Multiple compile error(-8)
+</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="124.8">
+      <c r="A23" s="9">
         <v>21</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="7">
-        <f>35-SUM(E23:K23,N23)</f>
-        <v>35</v>
-      </c>
-      <c r="E23" s="7">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="7">
-        <v>0</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7">
-        <v>0</v>
-      </c>
-      <c r="K23" s="7">
-        <v>0</v>
-      </c>
-      <c r="L23" s="24"/>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
-      <c r="N23" s="7">
+      <c r="D23" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>5</v>
+      </c>
+      <c r="F23" s="8">
+        <v>5</v>
+      </c>
+      <c r="G23" s="8">
+        <v>5</v>
+      </c>
+      <c r="H23" s="8">
+        <v>5</v>
+      </c>
+      <c r="I23" s="8">
+        <v>5</v>
+      </c>
+      <c r="J23" s="8">
+        <v>5</v>
+      </c>
+      <c r="K23" s="8">
+        <v>5</v>
+      </c>
+      <c r="L23" s="20"/>
+      <c r="M23" s="8">
+        <v>0</v>
+      </c>
+      <c r="N23" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O23" s="35" t="str">
-        <f>O$27&amp;IF(D23=35,"great",D23-35)&amp;CHAR(10)&amp;
-IF(E23=0,"",O$28&amp;"(-"&amp;E23&amp;")"&amp;CHAR(10))&amp;
-IF(G23=0,"",O$29&amp;"(-"&amp;G23&amp;")"&amp;CHAR(10))&amp;
-IF(H23=0,"",O$30&amp;"(-"&amp;H23&amp;")"&amp;CHAR(10))&amp;
-IF(F23=0,"",O$31&amp;"(-"&amp;F23&amp;")"&amp;CHAR(10))&amp;
-IF(I23=0,"",O$32&amp;"(-"&amp;I23&amp;")"&amp;CHAR(10))&amp;
-IF(J23=0,"",O$33&amp;"(-"&amp;J23&amp;")"&amp;CHAR(10))&amp;L23</f>
-        <v xml:space="preserve">Question 2: great
-</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="20">
+      <c r="O23" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 2: -35
+Wrong non-alphanumerical error message(-5)
+Incorrect termination condition(-5)
+Incorrect finding smallest possible base(-5)
+Incorrect convert to decimal number(-5)
+Wrongly printing base and decimal(-5)
+Wrongly printing binary number(-5)
+</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="124.8">
+      <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="7">
-        <f>35-SUM(E24:K24,N24)</f>
-        <v>35</v>
-      </c>
-      <c r="E24" s="7">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
-      <c r="G24" s="7">
-        <v>0</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7">
-        <v>0</v>
-      </c>
-      <c r="K24" s="7">
-        <v>0</v>
-      </c>
-      <c r="L24" s="24"/>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
+      <c r="D24" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="8">
+        <v>5</v>
+      </c>
+      <c r="F24" s="8">
+        <v>5</v>
+      </c>
+      <c r="G24" s="8">
+        <v>5</v>
+      </c>
+      <c r="H24" s="8">
+        <v>5</v>
+      </c>
+      <c r="I24" s="8">
+        <v>5</v>
+      </c>
+      <c r="J24" s="8">
+        <v>5</v>
+      </c>
+      <c r="K24" s="8">
+        <v>5</v>
+      </c>
+      <c r="L24" s="20"/>
+      <c r="M24" s="8">
+        <v>0</v>
+      </c>
+      <c r="N24" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O24" s="35" t="str">
+      <c r="O24" s="26" t="str">
         <f>O$27&amp;IF(D24=35,"great",D24-35)&amp;CHAR(10)&amp;
 IF(E24=0,"",O$28&amp;"(-"&amp;E24&amp;")"&amp;CHAR(10))&amp;
 IF(G24=0,"",O$29&amp;"(-"&amp;G24&amp;")"&amp;CHAR(10))&amp;
 IF(H24=0,"",O$30&amp;"(-"&amp;H24&amp;")"&amp;CHAR(10))&amp;
 IF(F24=0,"",O$31&amp;"(-"&amp;F24&amp;")"&amp;CHAR(10))&amp;
 IF(I24=0,"",O$32&amp;"(-"&amp;I24&amp;")"&amp;CHAR(10))&amp;
-IF(J24=0,"",O$33&amp;"(-"&amp;J24&amp;")"&amp;CHAR(10))&amp;L24</f>
-        <v xml:space="preserve">Question 2: great
-</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="20">
+IF(J24=0,"",O$33&amp;"(-"&amp;J24&amp;")"&amp;CHAR(10))&amp;
+IF(L24="","",L24&amp;CHAR(10))</f>
+        <v xml:space="preserve">Question 2: -35
+Wrong non-alphanumerical error message(-5)
+Incorrect termination condition(-5)
+Incorrect finding smallest possible base(-5)
+Incorrect convert to decimal number(-5)
+Wrongly printing base and decimal(-5)
+Wrongly printing binary number(-5)
+</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="124.8">
+      <c r="A25" s="9">
         <v>23</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="7">
-        <f>35-SUM(E25:K25,N25)</f>
-        <v>35</v>
-      </c>
-      <c r="E25" s="7">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7">
-        <v>0</v>
-      </c>
-      <c r="G25" s="7">
-        <v>0</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7">
-        <v>0</v>
-      </c>
-      <c r="K25" s="7">
-        <v>0</v>
-      </c>
-      <c r="L25" s="24"/>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
+      <c r="D25" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="8">
+        <v>5</v>
+      </c>
+      <c r="F25" s="8">
+        <v>5</v>
+      </c>
+      <c r="G25" s="8">
+        <v>5</v>
+      </c>
+      <c r="H25" s="8">
+        <v>5</v>
+      </c>
+      <c r="I25" s="8">
+        <v>5</v>
+      </c>
+      <c r="J25" s="8">
+        <v>5</v>
+      </c>
+      <c r="K25" s="8">
+        <v>5</v>
+      </c>
+      <c r="L25" s="20"/>
+      <c r="M25" s="8">
+        <v>0</v>
+      </c>
+      <c r="N25" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O25" s="35" t="str">
-        <f>O$27&amp;IF(D25=35,"great",D25-35)&amp;CHAR(10)&amp;
-IF(E25=0,"",O$28&amp;"(-"&amp;E25&amp;")"&amp;CHAR(10))&amp;
-IF(G25=0,"",O$29&amp;"(-"&amp;G25&amp;")"&amp;CHAR(10))&amp;
-IF(H25=0,"",O$30&amp;"(-"&amp;H25&amp;")"&amp;CHAR(10))&amp;
-IF(F25=0,"",O$31&amp;"(-"&amp;F25&amp;")"&amp;CHAR(10))&amp;
-IF(I25=0,"",O$32&amp;"(-"&amp;I25&amp;")"&amp;CHAR(10))&amp;
-IF(J25=0,"",O$33&amp;"(-"&amp;J25&amp;")"&amp;CHAR(10))&amp;L25</f>
-        <v xml:space="preserve">Question 2: great
+      <c r="O25" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 2: -35
+Wrong non-alphanumerical error message(-5)
+Incorrect termination condition(-5)
+Incorrect finding smallest possible base(-5)
+Incorrect convert to decimal number(-5)
+Wrongly printing base and decimal(-5)
+Wrongly printing binary number(-5)
 </v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="16.2">
-      <c r="D26"/>
+      <c r="D26" s="30"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="O27" s="28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="31.2">
-      <c r="O28" s="29" t="s">
+      <c r="O27" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="O28" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="O29" s="21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="31.2">
-      <c r="O29" s="29" t="s">
-        <v>102</v>
-      </c>
-    </row>
     <row r="30" spans="1:15">
-      <c r="O30" s="29" t="s">
-        <v>103</v>
+      <c r="O30" s="21" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="O31" s="29" t="s">
-        <v>104</v>
+      <c r="O31" s="21" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="O32" s="23" t="s">
-        <v>105</v>
+      <c r="O32" s="29" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="15:15">
-      <c r="O33" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="15:15">
-      <c r="O36" s="23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="15:15">
-      <c r="O37" s="23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="15:15">
-      <c r="O38" s="23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="15:15">
-      <c r="O39" s="23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="15:15">
-      <c r="O40" s="23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="15:15">
-      <c r="O41" s="23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="42" spans="15:15">
-      <c r="O42" s="23" t="s">
-        <v>113</v>
+      <c r="O33" s="29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="15:15">
+      <c r="O34" s="29" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2981,7 +3372,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="E3:K25">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>E$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2993,111 +3384,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6323B9B-4BCF-4CD4-945F-B74DDCC22885}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="23" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="23" customWidth="1"/>
-    <col min="3" max="4" width="10.5546875" style="23" customWidth="1"/>
-    <col min="5" max="11" width="15.77734375" style="23" customWidth="1"/>
-    <col min="12" max="12" width="35.77734375" style="23" customWidth="1"/>
-    <col min="13" max="14" width="5.77734375" style="23" customWidth="1"/>
-    <col min="15" max="15" width="35.77734375" style="23" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="23"/>
+    <col min="1" max="1" width="5.77734375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="29" customWidth="1"/>
+    <col min="3" max="4" width="10.5546875" style="29" customWidth="1"/>
+    <col min="5" max="11" width="15.77734375" style="29" customWidth="1"/>
+    <col min="12" max="12" width="40.77734375" style="29" customWidth="1"/>
+    <col min="13" max="14" width="5.77734375" style="29" customWidth="1"/>
+    <col min="15" max="15" width="45.77734375" style="29" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="30" t="s">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="8">
-        <v>5</v>
-      </c>
-      <c r="F1" s="8">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8">
-        <v>5</v>
-      </c>
-      <c r="H1" s="8">
-        <v>5</v>
-      </c>
-      <c r="I1" s="8">
-        <v>5</v>
-      </c>
-      <c r="J1" s="8">
-        <v>5</v>
-      </c>
-      <c r="K1" s="8">
-        <v>5</v>
-      </c>
-      <c r="L1" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="31" t="s">
+      <c r="E1" s="7">
+        <v>5</v>
+      </c>
+      <c r="F1" s="7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7">
+        <v>5</v>
+      </c>
+      <c r="I1" s="7">
+        <v>5</v>
+      </c>
+      <c r="J1" s="7">
+        <v>5</v>
+      </c>
+      <c r="K1" s="7">
+        <v>5</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="31.2">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="H2" s="8" t="s">
+    <row r="2" spans="1:15" ht="45" customHeight="1">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="31"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="20">
+      <c r="H2" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+    </row>
+    <row r="3" spans="1:15" ht="124.8">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="22" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="7">
-        <f>35-SUM(E3:K3,N3)</f>
+        <f>IF(35-SUM(E3:K3,N3)&lt;0, 0, 35-SUM(E3:K3,N3))</f>
         <v>3</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="24">
         <v>2</v>
       </c>
       <c r="F3" s="7">
@@ -3118,7 +3510,7 @@
       <c r="K3" s="7">
         <v>5</v>
       </c>
-      <c r="L3" s="24"/>
+      <c r="L3" s="18"/>
       <c r="M3" s="7">
         <v>0</v>
       </c>
@@ -3126,39 +3518,40 @@
         <f t="shared" ref="N3:N25" si="0">IF(4*M3&lt;=20, 4*M3, 20)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="35" t="str">
+      <c r="O3" s="26" t="str">
         <f>O$27&amp;IF(D3=35,"great",D3-35)&amp;CHAR(10)&amp;
 IF(G3=0,"",O$28&amp;"(-"&amp;G3&amp;")"&amp;CHAR(10))&amp;
 IF(F3=0,"",O$29&amp;"(-"&amp;F3&amp;")"&amp;CHAR(10))&amp;
 IF(H3=0,"",O$30&amp;"(-"&amp;H3&amp;")"&amp;CHAR(10))&amp;
 IF(E3=0,"",O$31&amp;"(-"&amp;E3&amp;")"&amp;CHAR(10))&amp;
 IF(I3=0,"",O$32&amp;"(-"&amp;I3&amp;")"&amp;CHAR(10))&amp;
-IF(J3=0,"",O$33&amp;"(-"&amp;J3&amp;")"&amp;CHAR(10))&amp;L3</f>
+IF(J3=0,"",O$33&amp;"(-"&amp;J3&amp;")"&amp;CHAR(10))&amp;
+IF(L3="","",L3&amp;CHAR(10))</f>
         <v xml:space="preserve">Question 3: -32
-Incorrect input hexadecimal number(-5)
-Incorrect termination condition(-5)
-Incorrect addition by digit(-5)
-Incorrect sum by digit(-2)
-Wrong overflow detection(-5)
-Incorrect print format(-5)
-</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="20">
+Incorrect definition of linear equation(-5)
+Incorrect Right Riemann Sum(-5)
+Wrongly printing each interval(-5)
+Wrongly printing Left Triangle BCD(-2)
+Wrongly printing Right Triangle BAD(-5)
+Wrongly printing Total Area ABCD(-5)
+</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="124.8">
+      <c r="A4" s="17">
         <v>2</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="7">
-        <f t="shared" ref="D4:D25" si="1">35-SUM(E4:K4,N4)</f>
+        <f t="shared" ref="D4:D25" si="1">IF(35-SUM(E4:K4,N4)&lt;0, 0, 35-SUM(E4:K4,N4))</f>
         <v>2</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="24">
         <v>3</v>
       </c>
       <c r="F4" s="7">
@@ -3179,7 +3572,7 @@
       <c r="K4" s="7">
         <v>5</v>
       </c>
-      <c r="L4" s="24"/>
+      <c r="L4" s="18"/>
       <c r="M4" s="7">
         <v>0</v>
       </c>
@@ -3187,39 +3580,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O4" s="35" t="str">
-        <f>O$27&amp;IF(D4=35,"great",D4-35)&amp;CHAR(10)&amp;
+      <c r="O4" s="26" t="str">
+        <f t="shared" ref="O4:O25" si="2">O$27&amp;IF(D4=35,"great",D4-35)&amp;CHAR(10)&amp;
 IF(G4=0,"",O$28&amp;"(-"&amp;G4&amp;")"&amp;CHAR(10))&amp;
 IF(F4=0,"",O$29&amp;"(-"&amp;F4&amp;")"&amp;CHAR(10))&amp;
 IF(H4=0,"",O$30&amp;"(-"&amp;H4&amp;")"&amp;CHAR(10))&amp;
 IF(E4=0,"",O$31&amp;"(-"&amp;E4&amp;")"&amp;CHAR(10))&amp;
 IF(I4=0,"",O$32&amp;"(-"&amp;I4&amp;")"&amp;CHAR(10))&amp;
-IF(J4=0,"",O$33&amp;"(-"&amp;J4&amp;")"&amp;CHAR(10))&amp;L4</f>
+IF(J4=0,"",O$33&amp;"(-"&amp;J4&amp;")"&amp;CHAR(10))&amp;
+IF(L4="","",L4&amp;CHAR(10))</f>
         <v xml:space="preserve">Question 3: -33
-Incorrect input hexadecimal number(-5)
-Incorrect termination condition(-5)
-Incorrect addition by digit(-5)
-Incorrect sum by digit(-3)
-Wrong overflow detection(-5)
-Incorrect print format(-5)
-</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="20">
+Incorrect definition of linear equation(-5)
+Incorrect Right Riemann Sum(-5)
+Wrongly printing each interval(-5)
+Wrongly printing Left Triangle BCD(-3)
+Wrongly printing Right Triangle BAD(-5)
+Wrongly printing Total Area ABCD(-5)
+</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="31.2">
+      <c r="A5" s="17">
         <v>3</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="7">
         <v>0</v>
       </c>
       <c r="F5" s="7">
@@ -3240,7 +3634,7 @@
       <c r="K5" s="7">
         <v>0</v>
       </c>
-      <c r="L5" s="24"/>
+      <c r="L5" s="18"/>
       <c r="M5" s="7">
         <v>0</v>
       </c>
@@ -3248,33 +3642,27 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O5" s="35" t="str">
-        <f>O$27&amp;IF(D5=35,"great",D5-35)&amp;CHAR(10)&amp;
-IF(G5=0,"",O$28&amp;"(-"&amp;G5&amp;")"&amp;CHAR(10))&amp;
-IF(F5=0,"",O$29&amp;"(-"&amp;F5&amp;")"&amp;CHAR(10))&amp;
-IF(H5=0,"",O$30&amp;"(-"&amp;H5&amp;")"&amp;CHAR(10))&amp;
-IF(E5=0,"",O$31&amp;"(-"&amp;E5&amp;")"&amp;CHAR(10))&amp;
-IF(I5=0,"",O$32&amp;"(-"&amp;I5&amp;")"&amp;CHAR(10))&amp;
-IF(J5=0,"",O$33&amp;"(-"&amp;J5&amp;")"&amp;CHAR(10))&amp;L5</f>
+      <c r="O5" s="26" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Question 3: great
 </v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="20">
+    <row r="6" spans="1:15" ht="109.2">
+      <c r="A6" s="17">
         <v>4</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="24">
         <v>3</v>
       </c>
       <c r="F6" s="7">
@@ -3295,7 +3683,7 @@
       <c r="K6" s="7">
         <v>5</v>
       </c>
-      <c r="L6" s="24"/>
+      <c r="L6" s="18"/>
       <c r="M6" s="7">
         <v>0</v>
       </c>
@@ -3303,31 +3691,25 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O6" s="35" t="str">
-        <f>O$27&amp;IF(D6=35,"great",D6-35)&amp;CHAR(10)&amp;
-IF(G6=0,"",O$28&amp;"(-"&amp;G6&amp;")"&amp;CHAR(10))&amp;
-IF(F6=0,"",O$29&amp;"(-"&amp;F6&amp;")"&amp;CHAR(10))&amp;
-IF(H6=0,"",O$30&amp;"(-"&amp;H6&amp;")"&amp;CHAR(10))&amp;
-IF(E6=0,"",O$31&amp;"(-"&amp;E6&amp;")"&amp;CHAR(10))&amp;
-IF(I6=0,"",O$32&amp;"(-"&amp;I6&amp;")"&amp;CHAR(10))&amp;
-IF(J6=0,"",O$33&amp;"(-"&amp;J6&amp;")"&amp;CHAR(10))&amp;L6</f>
+      <c r="O6" s="26" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Question 3: -28
-Incorrect termination condition(-5)
-Incorrect addition by digit(-5)
-Incorrect sum by digit(-3)
-Wrong overflow detection(-5)
-Incorrect print format(-5)
-</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="20">
-        <v>5</v>
-      </c>
-      <c r="B7" s="20" t="s">
+Incorrect Right Riemann Sum(-5)
+Wrongly printing each interval(-5)
+Wrongly printing Left Triangle BCD(-3)
+Wrongly printing Right Triangle BAD(-5)
+Wrongly printing Total Area ABCD(-5)
+</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="124.8">
+      <c r="A7" s="17">
+        <v>5</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="7">
@@ -3355,7 +3737,7 @@
       <c r="K7" s="7">
         <v>5</v>
       </c>
-      <c r="L7" s="24"/>
+      <c r="L7" s="18"/>
       <c r="M7" s="7">
         <v>0</v>
       </c>
@@ -3363,37 +3745,31 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O7" s="35" t="str">
-        <f>O$27&amp;IF(D7=35,"great",D7-35)&amp;CHAR(10)&amp;
-IF(G7=0,"",O$28&amp;"(-"&amp;G7&amp;")"&amp;CHAR(10))&amp;
-IF(F7=0,"",O$29&amp;"(-"&amp;F7&amp;")"&amp;CHAR(10))&amp;
-IF(H7=0,"",O$30&amp;"(-"&amp;H7&amp;")"&amp;CHAR(10))&amp;
-IF(E7=0,"",O$31&amp;"(-"&amp;E7&amp;")"&amp;CHAR(10))&amp;
-IF(I7=0,"",O$32&amp;"(-"&amp;I7&amp;")"&amp;CHAR(10))&amp;
-IF(J7=0,"",O$33&amp;"(-"&amp;J7&amp;")"&amp;CHAR(10))&amp;L7</f>
+      <c r="O7" s="26" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Question 3: -35
-Incorrect input hexadecimal number(-5)
-Incorrect termination condition(-5)
-Incorrect addition by digit(-5)
-Incorrect sum by digit(-5)
-Wrong overflow detection(-5)
-Incorrect print format(-5)
-</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="20">
+Incorrect definition of linear equation(-5)
+Incorrect Right Riemann Sum(-5)
+Wrongly printing each interval(-5)
+Wrongly printing Left Triangle BCD(-5)
+Wrongly printing Right Triangle BAD(-5)
+Wrongly printing Total Area ABCD(-5)
+</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="62.4">
+      <c r="A8" s="17">
         <v>6</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="7">
         <v>0</v>
@@ -3414,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="K8" s="7">
-        <v>1</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>125</v>
+        <v>0</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3426,27 +3802,22 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="O8" s="35" t="str">
-        <f>O$27&amp;IF(D8=35,"great",D8-35)&amp;CHAR(10)&amp;
-IF(G8=0,"",O$28&amp;"(-"&amp;G8&amp;")"&amp;CHAR(10))&amp;
-IF(F8=0,"",O$29&amp;"(-"&amp;F8&amp;")"&amp;CHAR(10))&amp;
-IF(H8=0,"",O$30&amp;"(-"&amp;H8&amp;")"&amp;CHAR(10))&amp;
-IF(E8=0,"",O$31&amp;"(-"&amp;E8&amp;")"&amp;CHAR(10))&amp;
-IF(I8=0,"",O$32&amp;"(-"&amp;I8&amp;")"&amp;CHAR(10))&amp;
-IF(J8=0,"",O$33&amp;"(-"&amp;J8&amp;")"&amp;CHAR(10))&amp;L8</f>
-        <v>Question 3: -7
-Incorrect termination condition(-2)
-Improper variable initialize(-4)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="20">
+      <c r="O8" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 3: -6
+Incorrect Right Riemann Sum(-2)
+Improper variable initialize(-4)
+</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="124.8">
+      <c r="A9" s="17">
         <v>7</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="19" t="s">
         <v>100</v>
       </c>
       <c r="D9" s="7">
@@ -3474,7 +3845,7 @@
       <c r="K9" s="7">
         <v>5</v>
       </c>
-      <c r="L9" s="35"/>
+      <c r="L9" s="25"/>
       <c r="M9" s="7">
         <v>0</v>
       </c>
@@ -3482,32 +3853,26 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O9" s="35" t="str">
-        <f>O$27&amp;IF(D9=35,"great",D9-35)&amp;CHAR(10)&amp;
-IF(G9=0,"",O$28&amp;"(-"&amp;G9&amp;")"&amp;CHAR(10))&amp;
-IF(F9=0,"",O$29&amp;"(-"&amp;F9&amp;")"&amp;CHAR(10))&amp;
-IF(H9=0,"",O$30&amp;"(-"&amp;H9&amp;")"&amp;CHAR(10))&amp;
-IF(E9=0,"",O$31&amp;"(-"&amp;E9&amp;")"&amp;CHAR(10))&amp;
-IF(I9=0,"",O$32&amp;"(-"&amp;I9&amp;")"&amp;CHAR(10))&amp;
-IF(J9=0,"",O$33&amp;"(-"&amp;J9&amp;")"&amp;CHAR(10))&amp;L9</f>
+      <c r="O9" s="26" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Question 3: -35
-Incorrect input hexadecimal number(-5)
-Incorrect termination condition(-5)
-Incorrect addition by digit(-5)
-Incorrect sum by digit(-5)
-Wrong overflow detection(-5)
-Incorrect print format(-5)
-</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="20">
+Incorrect definition of linear equation(-5)
+Incorrect Right Riemann Sum(-5)
+Wrongly printing each interval(-5)
+Wrongly printing Left Triangle BCD(-5)
+Wrongly printing Right Triangle BAD(-5)
+Wrongly printing Total Area ABCD(-5)
+</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="124.8">
+      <c r="A10" s="17">
         <v>8</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="19" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="7">
@@ -3535,7 +3900,7 @@
       <c r="K10" s="7">
         <v>5</v>
       </c>
-      <c r="L10" s="24"/>
+      <c r="L10" s="18"/>
       <c r="M10" s="7">
         <v>0</v>
       </c>
@@ -3543,32 +3908,26 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O10" s="35" t="str">
-        <f>O$27&amp;IF(D10=35,"great",D10-35)&amp;CHAR(10)&amp;
-IF(G10=0,"",O$28&amp;"(-"&amp;G10&amp;")"&amp;CHAR(10))&amp;
-IF(F10=0,"",O$29&amp;"(-"&amp;F10&amp;")"&amp;CHAR(10))&amp;
-IF(H10=0,"",O$30&amp;"(-"&amp;H10&amp;")"&amp;CHAR(10))&amp;
-IF(E10=0,"",O$31&amp;"(-"&amp;E10&amp;")"&amp;CHAR(10))&amp;
-IF(I10=0,"",O$32&amp;"(-"&amp;I10&amp;")"&amp;CHAR(10))&amp;
-IF(J10=0,"",O$33&amp;"(-"&amp;J10&amp;")"&amp;CHAR(10))&amp;L10</f>
+      <c r="O10" s="26" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Question 3: -35
-Incorrect input hexadecimal number(-5)
-Incorrect termination condition(-5)
-Incorrect addition by digit(-5)
-Incorrect sum by digit(-5)
-Wrong overflow detection(-5)
-Incorrect print format(-5)
-</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="20">
+Incorrect definition of linear equation(-5)
+Incorrect Right Riemann Sum(-5)
+Wrongly printing each interval(-5)
+Wrongly printing Left Triangle BCD(-5)
+Wrongly printing Right Triangle BAD(-5)
+Wrongly printing Total Area ABCD(-5)
+</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="46.8">
+      <c r="A11" s="17">
         <v>9</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="19" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="7">
@@ -3596,7 +3955,7 @@
       <c r="K11" s="7">
         <v>0</v>
       </c>
-      <c r="L11" s="24"/>
+      <c r="L11" s="18"/>
       <c r="M11" s="7">
         <v>0</v>
       </c>
@@ -3604,34 +3963,28 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O11" s="35" t="str">
-        <f>O$27&amp;IF(D11=35,"great",D11-35)&amp;CHAR(10)&amp;
-IF(G11=0,"",O$28&amp;"(-"&amp;G11&amp;")"&amp;CHAR(10))&amp;
-IF(F11=0,"",O$29&amp;"(-"&amp;F11&amp;")"&amp;CHAR(10))&amp;
-IF(H11=0,"",O$30&amp;"(-"&amp;H11&amp;")"&amp;CHAR(10))&amp;
-IF(E11=0,"",O$31&amp;"(-"&amp;E11&amp;")"&amp;CHAR(10))&amp;
-IF(I11=0,"",O$32&amp;"(-"&amp;I11&amp;")"&amp;CHAR(10))&amp;
-IF(J11=0,"",O$33&amp;"(-"&amp;J11&amp;")"&amp;CHAR(10))&amp;L11</f>
+      <c r="O11" s="26" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Question 3: -5
-Incorrect termination condition(-5)
-</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="20">
+Incorrect Right Riemann Sum(-5)
+</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="109.2">
+      <c r="A12" s="17">
         <v>10</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="19" t="s">
         <v>45</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="24">
         <v>3</v>
       </c>
       <c r="F12" s="7">
@@ -3652,7 +4005,7 @@
       <c r="K12" s="7">
         <v>5</v>
       </c>
-      <c r="L12" s="24"/>
+      <c r="L12" s="18"/>
       <c r="M12" s="7">
         <v>0</v>
       </c>
@@ -3660,38 +4013,32 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O12" s="35" t="str">
-        <f>O$27&amp;IF(D12=35,"great",D12-35)&amp;CHAR(10)&amp;
-IF(G12=0,"",O$28&amp;"(-"&amp;G12&amp;")"&amp;CHAR(10))&amp;
-IF(F12=0,"",O$29&amp;"(-"&amp;F12&amp;")"&amp;CHAR(10))&amp;
-IF(H12=0,"",O$30&amp;"(-"&amp;H12&amp;")"&amp;CHAR(10))&amp;
-IF(E12=0,"",O$31&amp;"(-"&amp;E12&amp;")"&amp;CHAR(10))&amp;
-IF(I12=0,"",O$32&amp;"(-"&amp;I12&amp;")"&amp;CHAR(10))&amp;
-IF(J12=0,"",O$33&amp;"(-"&amp;J12&amp;")"&amp;CHAR(10))&amp;L12</f>
+      <c r="O12" s="26" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Question 3: -28
-Incorrect termination condition(-5)
-Incorrect addition by digit(-5)
-Incorrect sum by digit(-3)
-Wrong overflow detection(-5)
-Incorrect print format(-5)
-</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="31.2">
-      <c r="A13" s="20">
+Incorrect Right Riemann Sum(-5)
+Wrongly printing each interval(-5)
+Wrongly printing Left Triangle BCD(-3)
+Wrongly printing Right Triangle BAD(-5)
+Wrongly printing Total Area ABCD(-5)
+</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="93.6">
+      <c r="A13" s="17">
         <v>11</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="19" t="s">
         <v>49</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="24">
         <v>2</v>
       </c>
       <c r="F13" s="7">
@@ -3712,8 +4059,8 @@
       <c r="K13" s="7">
         <v>5</v>
       </c>
-      <c r="L13" s="26" t="s">
-        <v>130</v>
+      <c r="L13" s="18" t="s">
+        <v>122</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3722,40 +4069,35 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="O13" s="35" t="str">
-        <f>O$27&amp;IF(D13=35,"great",D13-35)&amp;CHAR(10)&amp;
-IF(G13=0,"",O$28&amp;"(-"&amp;G13&amp;")"&amp;CHAR(10))&amp;
-IF(F13=0,"",O$29&amp;"(-"&amp;F13&amp;")"&amp;CHAR(10))&amp;
-IF(H13=0,"",O$30&amp;"(-"&amp;H13&amp;")"&amp;CHAR(10))&amp;
-IF(E13=0,"",O$31&amp;"(-"&amp;E13&amp;")"&amp;CHAR(10))&amp;
-IF(I13=0,"",O$32&amp;"(-"&amp;I13&amp;")"&amp;CHAR(10))&amp;
-IF(J13=0,"",O$33&amp;"(-"&amp;J13&amp;")"&amp;CHAR(10))&amp;L13</f>
-        <v>Question 3: -17
-Incorrect termination condition(-2)
-Incorrect sum by digit(-2)
+      <c r="O13" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 3: -17
+Incorrect Right Riemann Sum(-2)
+Wrongly printing Left Triangle BCD(-2)
 Incorrect passing function(-4)
-Passing wrong variable(-4)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="20">
+Passing wrong variable(-4)
+</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="62.4">
+      <c r="A14" s="17">
         <v>12</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="19" t="s">
         <v>53</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E14" s="7">
         <v>0</v>
       </c>
       <c r="F14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
@@ -3772,7 +4114,9 @@
       <c r="K14" s="7">
         <v>0</v>
       </c>
-      <c r="L14" s="24"/>
+      <c r="L14" s="18" t="s">
+        <v>123</v>
+      </c>
       <c r="M14" s="7">
         <v>0</v>
       </c>
@@ -3780,109 +4124,109 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O14" s="35" t="str">
-        <f>O$27&amp;IF(D14=35,"great",D14-35)&amp;CHAR(10)&amp;
-IF(G14=0,"",O$28&amp;"(-"&amp;G14&amp;")"&amp;CHAR(10))&amp;
-IF(F14=0,"",O$29&amp;"(-"&amp;F14&amp;")"&amp;CHAR(10))&amp;
-IF(H14=0,"",O$30&amp;"(-"&amp;H14&amp;")"&amp;CHAR(10))&amp;
-IF(E14=0,"",O$31&amp;"(-"&amp;E14&amp;")"&amp;CHAR(10))&amp;
-IF(I14=0,"",O$32&amp;"(-"&amp;I14&amp;")"&amp;CHAR(10))&amp;
-IF(J14=0,"",O$33&amp;"(-"&amp;J14&amp;")"&amp;CHAR(10))&amp;L14</f>
-        <v xml:space="preserve">Question 3: great
-</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="20">
+      <c r="O14" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 3: -2
+Incorrect Right Riemann Sum(-2)
+Using Left Riemann Sum(-0)
+</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="156">
+      <c r="A15" s="17">
         <v>13</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="19" t="s">
         <v>57</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E15" s="24">
+        <v>2</v>
       </c>
       <c r="F15" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G15" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I15" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J15" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K15" s="7">
-        <v>0</v>
-      </c>
-      <c r="L15" s="24"/>
+        <v>5</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="M15" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N15" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="35" t="str">
-        <f>O$27&amp;IF(D15=35,"great",D15-35)&amp;CHAR(10)&amp;
-IF(G15=0,"",O$28&amp;"(-"&amp;G15&amp;")"&amp;CHAR(10))&amp;
-IF(F15=0,"",O$29&amp;"(-"&amp;F15&amp;")"&amp;CHAR(10))&amp;
-IF(H15=0,"",O$30&amp;"(-"&amp;H15&amp;")"&amp;CHAR(10))&amp;
-IF(E15=0,"",O$31&amp;"(-"&amp;E15&amp;")"&amp;CHAR(10))&amp;
-IF(I15=0,"",O$32&amp;"(-"&amp;I15&amp;")"&amp;CHAR(10))&amp;
-IF(J15=0,"",O$33&amp;"(-"&amp;J15&amp;")"&amp;CHAR(10))&amp;L15</f>
-        <v xml:space="preserve">Question 3: great
-</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="20">
+        <v>20</v>
+      </c>
+      <c r="O15" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 3: -35
+Incorrect definition of linear equation(-2)
+Incorrect Right Riemann Sum(-5)
+Wrongly printing each interval(-5)
+Wrongly printing Left Triangle BCD(-2)
+Wrongly printing Right Triangle BAD(-5)
+Wrongly printing Total Area ABCD(-5)
+Using variables without declaration(-20)
+Using Left Riemann Sum(-0)
+</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="124.8">
+      <c r="A16" s="17">
         <v>14</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="19" t="s">
         <v>61</v>
       </c>
       <c r="D16" s="7">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0</v>
+        <f>IF(35-SUM(E16:K16,N16)&lt;0, 0, 35-SUM(E16:K16,N16))</f>
+        <v>3</v>
+      </c>
+      <c r="E16" s="24">
+        <v>2</v>
       </c>
       <c r="F16" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G16" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J16" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K16" s="7">
-        <v>0</v>
-      </c>
-      <c r="L16" s="24"/>
+        <v>5</v>
+      </c>
+      <c r="L16" s="18"/>
       <c r="M16" s="7">
         <v>0</v>
       </c>
@@ -3890,37 +4234,37 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O16" s="35" t="str">
-        <f>O$27&amp;IF(D16=35,"great",D16-35)&amp;CHAR(10)&amp;
-IF(G16=0,"",O$28&amp;"(-"&amp;G16&amp;")"&amp;CHAR(10))&amp;
-IF(F16=0,"",O$29&amp;"(-"&amp;F16&amp;")"&amp;CHAR(10))&amp;
-IF(H16=0,"",O$30&amp;"(-"&amp;H16&amp;")"&amp;CHAR(10))&amp;
-IF(E16=0,"",O$31&amp;"(-"&amp;E16&amp;")"&amp;CHAR(10))&amp;
-IF(I16=0,"",O$32&amp;"(-"&amp;I16&amp;")"&amp;CHAR(10))&amp;
-IF(J16=0,"",O$33&amp;"(-"&amp;J16&amp;")"&amp;CHAR(10))&amp;L16</f>
-        <v xml:space="preserve">Question 3: great
-</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="20">
+      <c r="O16" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 3: -32
+Incorrect definition of linear equation(-5)
+Incorrect Right Riemann Sum(-5)
+Wrongly printing each interval(-5)
+Wrongly printing Left Triangle BCD(-2)
+Wrongly printing Right Triangle BAD(-5)
+Wrongly printing Total Area ABCD(-5)
+</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="62.4">
+      <c r="A17" s="17">
         <v>15</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="19" t="s">
         <v>65</v>
       </c>
       <c r="D17" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="E17" s="24">
+        <v>2</v>
       </c>
       <c r="F17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" s="7">
         <v>0</v>
@@ -3937,7 +4281,7 @@
       <c r="K17" s="7">
         <v>0</v>
       </c>
-      <c r="L17" s="24"/>
+      <c r="L17" s="18"/>
       <c r="M17" s="7">
         <v>0</v>
       </c>
@@ -3945,54 +4289,50 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O17" s="35" t="str">
-        <f>O$27&amp;IF(D17=35,"great",D17-35)&amp;CHAR(10)&amp;
-IF(G17=0,"",O$28&amp;"(-"&amp;G17&amp;")"&amp;CHAR(10))&amp;
-IF(F17=0,"",O$29&amp;"(-"&amp;F17&amp;")"&amp;CHAR(10))&amp;
-IF(H17=0,"",O$30&amp;"(-"&amp;H17&amp;")"&amp;CHAR(10))&amp;
-IF(E17=0,"",O$31&amp;"(-"&amp;E17&amp;")"&amp;CHAR(10))&amp;
-IF(I17=0,"",O$32&amp;"(-"&amp;I17&amp;")"&amp;CHAR(10))&amp;
-IF(J17=0,"",O$33&amp;"(-"&amp;J17&amp;")"&amp;CHAR(10))&amp;L17</f>
-        <v xml:space="preserve">Question 3: great
-</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="20">
+      <c r="O17" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 3: -4
+Incorrect Right Riemann Sum(-2)
+Wrongly printing Left Triangle BCD(-2)
+</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="124.8">
+      <c r="A18" s="17">
         <v>16</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D18" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E18" s="24">
+        <v>2</v>
       </c>
       <c r="F18" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J18" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K18" s="7">
-        <v>0</v>
-      </c>
-      <c r="L18" s="24"/>
+        <v>5</v>
+      </c>
+      <c r="L18" s="18"/>
       <c r="M18" s="7">
         <v>0</v>
       </c>
@@ -4000,109 +4340,112 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O18" s="35" t="str">
-        <f>O$27&amp;IF(D18=35,"great",D18-35)&amp;CHAR(10)&amp;
-IF(G18=0,"",O$28&amp;"(-"&amp;G18&amp;")"&amp;CHAR(10))&amp;
-IF(F18=0,"",O$29&amp;"(-"&amp;F18&amp;")"&amp;CHAR(10))&amp;
-IF(H18=0,"",O$30&amp;"(-"&amp;H18&amp;")"&amp;CHAR(10))&amp;
-IF(E18=0,"",O$31&amp;"(-"&amp;E18&amp;")"&amp;CHAR(10))&amp;
-IF(I18=0,"",O$32&amp;"(-"&amp;I18&amp;")"&amp;CHAR(10))&amp;
-IF(J18=0,"",O$33&amp;"(-"&amp;J18&amp;")"&amp;CHAR(10))&amp;L18</f>
-        <v xml:space="preserve">Question 3: great
-</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="20">
+      <c r="O18" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 3: -32
+Incorrect definition of linear equation(-5)
+Incorrect Right Riemann Sum(-5)
+Wrongly printing each interval(-5)
+Wrongly printing Left Triangle BCD(-2)
+Wrongly printing Right Triangle BAD(-5)
+Wrongly printing Total Area ABCD(-5)
+</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="140.4">
+      <c r="A19" s="17">
         <v>17</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D19" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E19" s="24">
+        <v>2</v>
       </c>
       <c r="F19" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J19" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K19" s="7">
-        <v>0</v>
-      </c>
-      <c r="L19" s="24"/>
+        <v>3</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>125</v>
+      </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="35" t="str">
-        <f>O$27&amp;IF(D19=35,"great",D19-35)&amp;CHAR(10)&amp;
-IF(G19=0,"",O$28&amp;"(-"&amp;G19&amp;")"&amp;CHAR(10))&amp;
-IF(F19=0,"",O$29&amp;"(-"&amp;F19&amp;")"&amp;CHAR(10))&amp;
-IF(H19=0,"",O$30&amp;"(-"&amp;H19&amp;")"&amp;CHAR(10))&amp;
-IF(E19=0,"",O$31&amp;"(-"&amp;E19&amp;")"&amp;CHAR(10))&amp;
-IF(I19=0,"",O$32&amp;"(-"&amp;I19&amp;")"&amp;CHAR(10))&amp;
-IF(J19=0,"",O$33&amp;"(-"&amp;J19&amp;")"&amp;CHAR(10))&amp;L19</f>
-        <v xml:space="preserve">Question 3: great
-</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="20">
+        <v>4</v>
+      </c>
+      <c r="O19" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 3: -25
+Incorrect definition of linear equation(-5)
+Incorrect Right Riemann Sum(-2)
+Wrongly printing each interval(-3)
+Wrongly printing Left Triangle BCD(-2)
+Wrongly printing Right Triangle BAD(-3)
+Wrongly printing Total Area ABCD(-3)
+Passing wrong variable(-4)
+</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="124.8">
+      <c r="A20" s="17">
         <v>18</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="19" t="s">
         <v>77</v>
       </c>
       <c r="D20" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F20" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G20" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J20" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K20" s="7">
-        <v>0</v>
-      </c>
-      <c r="L20" s="24"/>
+        <v>5</v>
+      </c>
+      <c r="L20" s="18"/>
       <c r="M20" s="7">
         <v>0</v>
       </c>
@@ -4110,37 +4453,37 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O20" s="35" t="str">
-        <f>O$27&amp;IF(D20=35,"great",D20-35)&amp;CHAR(10)&amp;
-IF(G20=0,"",O$28&amp;"(-"&amp;G20&amp;")"&amp;CHAR(10))&amp;
-IF(F20=0,"",O$29&amp;"(-"&amp;F20&amp;")"&amp;CHAR(10))&amp;
-IF(H20=0,"",O$30&amp;"(-"&amp;H20&amp;")"&amp;CHAR(10))&amp;
-IF(E20=0,"",O$31&amp;"(-"&amp;E20&amp;")"&amp;CHAR(10))&amp;
-IF(I20=0,"",O$32&amp;"(-"&amp;I20&amp;")"&amp;CHAR(10))&amp;
-IF(J20=0,"",O$33&amp;"(-"&amp;J20&amp;")"&amp;CHAR(10))&amp;L20</f>
-        <v xml:space="preserve">Question 3: great
-</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="20">
+      <c r="O20" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 3: -35
+Incorrect definition of linear equation(-5)
+Incorrect Right Riemann Sum(-5)
+Wrongly printing each interval(-5)
+Wrongly printing Left Triangle BCD(-5)
+Wrongly printing Right Triangle BAD(-5)
+Wrongly printing Total Area ABCD(-5)
+</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="93.6">
+      <c r="A21" s="17">
         <v>19</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="19" t="s">
         <v>81</v>
       </c>
       <c r="D21" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="E21" s="24">
+        <v>2</v>
       </c>
       <c r="F21" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
@@ -4155,47 +4498,47 @@
         <v>0</v>
       </c>
       <c r="K21" s="7">
-        <v>0</v>
-      </c>
-      <c r="L21" s="24"/>
+        <v>5</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>122</v>
+      </c>
       <c r="M21" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N21" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="35" t="str">
-        <f>O$27&amp;IF(D21=35,"great",D21-35)&amp;CHAR(10)&amp;
-IF(G21=0,"",O$28&amp;"(-"&amp;G21&amp;")"&amp;CHAR(10))&amp;
-IF(F21=0,"",O$29&amp;"(-"&amp;F21&amp;")"&amp;CHAR(10))&amp;
-IF(H21=0,"",O$30&amp;"(-"&amp;H21&amp;")"&amp;CHAR(10))&amp;
-IF(E21=0,"",O$31&amp;"(-"&amp;E21&amp;")"&amp;CHAR(10))&amp;
-IF(I21=0,"",O$32&amp;"(-"&amp;I21&amp;")"&amp;CHAR(10))&amp;
-IF(J21=0,"",O$33&amp;"(-"&amp;J21&amp;")"&amp;CHAR(10))&amp;L21</f>
-        <v xml:space="preserve">Question 3: great
-</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="20">
+        <v>8</v>
+      </c>
+      <c r="O21" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 3: -20
+Incorrect Right Riemann Sum(-5)
+Wrongly printing Left Triangle BCD(-2)
+Incorrect passing function(-4)
+Passing wrong variable(-4)
+</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="62.4">
+      <c r="A22" s="17">
         <v>20</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="19" t="s">
         <v>85</v>
       </c>
       <c r="D22" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E22" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F22" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G22" s="7">
         <v>0</v>
@@ -4212,7 +4555,7 @@
       <c r="K22" s="7">
         <v>0</v>
       </c>
-      <c r="L22" s="24"/>
+      <c r="L22" s="18"/>
       <c r="M22" s="7">
         <v>0</v>
       </c>
@@ -4220,54 +4563,50 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O22" s="35" t="str">
-        <f>O$27&amp;IF(D22=35,"great",D22-35)&amp;CHAR(10)&amp;
-IF(G22=0,"",O$28&amp;"(-"&amp;G22&amp;")"&amp;CHAR(10))&amp;
-IF(F22=0,"",O$29&amp;"(-"&amp;F22&amp;")"&amp;CHAR(10))&amp;
-IF(H22=0,"",O$30&amp;"(-"&amp;H22&amp;")"&amp;CHAR(10))&amp;
-IF(E22=0,"",O$31&amp;"(-"&amp;E22&amp;")"&amp;CHAR(10))&amp;
-IF(I22=0,"",O$32&amp;"(-"&amp;I22&amp;")"&amp;CHAR(10))&amp;
-IF(J22=0,"",O$33&amp;"(-"&amp;J22&amp;")"&amp;CHAR(10))&amp;L22</f>
-        <v xml:space="preserve">Question 3: great
-</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="20">
+      <c r="O22" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 3: -7
+Incorrect Right Riemann Sum(-2)
+Wrongly printing Left Triangle BCD(-5)
+</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="124.8">
+      <c r="A23" s="17">
         <v>21</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F23" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G23" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J23" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K23" s="7">
-        <v>0</v>
-      </c>
-      <c r="L23" s="24"/>
+        <v>5</v>
+      </c>
+      <c r="L23" s="18"/>
       <c r="M23" s="7">
         <v>0</v>
       </c>
@@ -4275,54 +4614,54 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O23" s="35" t="str">
-        <f>O$27&amp;IF(D23=35,"great",D23-35)&amp;CHAR(10)&amp;
-IF(G23=0,"",O$28&amp;"(-"&amp;G23&amp;")"&amp;CHAR(10))&amp;
-IF(F23=0,"",O$29&amp;"(-"&amp;F23&amp;")"&amp;CHAR(10))&amp;
-IF(H23=0,"",O$30&amp;"(-"&amp;H23&amp;")"&amp;CHAR(10))&amp;
-IF(E23=0,"",O$31&amp;"(-"&amp;E23&amp;")"&amp;CHAR(10))&amp;
-IF(I23=0,"",O$32&amp;"(-"&amp;I23&amp;")"&amp;CHAR(10))&amp;
-IF(J23=0,"",O$33&amp;"(-"&amp;J23&amp;")"&amp;CHAR(10))&amp;L23</f>
-        <v xml:space="preserve">Question 3: great
-</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="20">
+      <c r="O23" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 3: -35
+Incorrect definition of linear equation(-5)
+Incorrect Right Riemann Sum(-5)
+Wrongly printing each interval(-5)
+Wrongly printing Left Triangle BCD(-5)
+Wrongly printing Right Triangle BAD(-5)
+Wrongly printing Total Area ABCD(-5)
+</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="124.8">
+      <c r="A24" s="17">
         <v>22</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="19" t="s">
         <v>92</v>
       </c>
       <c r="D24" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E24" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F24" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G24" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J24" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K24" s="7">
-        <v>0</v>
-      </c>
-      <c r="L24" s="24"/>
+        <v>5</v>
+      </c>
+      <c r="L24" s="18"/>
       <c r="M24" s="7">
         <v>0</v>
       </c>
@@ -4330,54 +4669,54 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O24" s="35" t="str">
-        <f>O$27&amp;IF(D24=35,"great",D24-35)&amp;CHAR(10)&amp;
-IF(G24=0,"",O$28&amp;"(-"&amp;G24&amp;")"&amp;CHAR(10))&amp;
-IF(F24=0,"",O$29&amp;"(-"&amp;F24&amp;")"&amp;CHAR(10))&amp;
-IF(H24=0,"",O$30&amp;"(-"&amp;H24&amp;")"&amp;CHAR(10))&amp;
-IF(E24=0,"",O$31&amp;"(-"&amp;E24&amp;")"&amp;CHAR(10))&amp;
-IF(I24=0,"",O$32&amp;"(-"&amp;I24&amp;")"&amp;CHAR(10))&amp;
-IF(J24=0,"",O$33&amp;"(-"&amp;J24&amp;")"&amp;CHAR(10))&amp;L24</f>
-        <v xml:space="preserve">Question 3: great
-</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="20">
+      <c r="O24" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 3: -35
+Incorrect definition of linear equation(-5)
+Incorrect Right Riemann Sum(-5)
+Wrongly printing each interval(-5)
+Wrongly printing Left Triangle BCD(-5)
+Wrongly printing Right Triangle BAD(-5)
+Wrongly printing Total Area ABCD(-5)
+</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="124.8">
+      <c r="A25" s="17">
         <v>23</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="19" t="s">
         <v>96</v>
       </c>
       <c r="D25" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F25" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G25" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J25" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K25" s="7">
-        <v>0</v>
-      </c>
-      <c r="L25" s="24"/>
+        <v>5</v>
+      </c>
+      <c r="L25" s="18"/>
       <c r="M25" s="7">
         <v>0</v>
       </c>
@@ -4385,90 +4724,81 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O25" s="35" t="str">
-        <f>O$27&amp;IF(D25=35,"great",D25-35)&amp;CHAR(10)&amp;
-IF(G25=0,"",O$28&amp;"(-"&amp;G25&amp;")"&amp;CHAR(10))&amp;
-IF(F25=0,"",O$29&amp;"(-"&amp;F25&amp;")"&amp;CHAR(10))&amp;
-IF(H25=0,"",O$30&amp;"(-"&amp;H25&amp;")"&amp;CHAR(10))&amp;
-IF(E25=0,"",O$31&amp;"(-"&amp;E25&amp;")"&amp;CHAR(10))&amp;
-IF(I25=0,"",O$32&amp;"(-"&amp;I25&amp;")"&amp;CHAR(10))&amp;
-IF(J25=0,"",O$33&amp;"(-"&amp;J25&amp;")"&amp;CHAR(10))&amp;L25</f>
-        <v xml:space="preserve">Question 3: great
+      <c r="O25" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Question 3: -35
+Incorrect definition of linear equation(-5)
+Incorrect Right Riemann Sum(-5)
+Wrongly printing each interval(-5)
+Wrongly printing Left Triangle BCD(-5)
+Wrongly printing Right Triangle BAD(-5)
+Wrongly printing Total Area ABCD(-5)
 </v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="16.2">
-      <c r="D26"/>
+      <c r="D26" s="30"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="O27" s="28" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="31.2">
-      <c r="O28" s="29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="31.2">
-      <c r="O29" s="29" t="s">
-        <v>102</v>
+      <c r="O27" s="31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="O28" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="O29" s="21" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="O30" s="29" t="s">
-        <v>103</v>
+      <c r="O30" s="21" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="O31" s="29" t="s">
-        <v>104</v>
+      <c r="O31" s="21" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="O32" s="23" t="s">
-        <v>105</v>
+      <c r="O32" s="21" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="15:15">
-      <c r="O33" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="15:15">
-      <c r="O35" s="27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="15:15">
-      <c r="O36" s="27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="15:15">
-      <c r="O37" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="15:15">
-      <c r="O38" s="27" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="15:15">
-      <c r="O39" s="27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="15:15">
-      <c r="O40" s="27" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="15:15">
-      <c r="O41" s="27" t="s">
-        <v>118</v>
-      </c>
+      <c r="O33" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="15:15">
+      <c r="O34" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="15:15" ht="16.2">
+      <c r="O35" s="30"/>
+    </row>
+    <row r="36" spans="15:15" ht="16.2">
+      <c r="O36" s="30"/>
+    </row>
+    <row r="37" spans="15:15" ht="16.2">
+      <c r="O37" s="30"/>
+    </row>
+    <row r="38" spans="15:15" ht="16.2">
+      <c r="O38" s="30"/>
+    </row>
+    <row r="39" spans="15:15" ht="16.2">
+      <c r="O39" s="30"/>
+    </row>
+    <row r="40" spans="15:15" ht="16.2">
+      <c r="O40" s="30"/>
+    </row>
+    <row r="41" spans="15:15" ht="16.2">
+      <c r="O41" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4480,12 +4810,7 @@
     <mergeCell ref="D1:D2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="E3:K9 E11:K25">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>E$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:K10">
+  <conditionalFormatting sqref="E3:K25">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>E$1</formula>
     </cfRule>
